--- a/readthis.xlsx
+++ b/readthis.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>high</t>
   </si>
@@ -164,8 +165,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -181,15 +186,19 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8379,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14602,6 +14611,4491 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="1.5" customWidth="1"/>
+    <col min="11" max="11" width="1.1640625" customWidth="1"/>
+    <col min="21" max="21" width="1.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="45">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="e">
+        <f>'[1]shot analysis'!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" t="e">
+        <f>'[1]shot analysis'!M3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" t="e">
+        <f>'[1]shot analysis'!N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>'[1]shot analysis'!O3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" t="e">
+        <f>'[1]shot analysis'!AA3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e">
+        <f>'[1]shot analysis'!AB3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <f>'[1]shot analysis'!AC3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f>'[1]shot analysis'!AD3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" t="e">
+        <f>[1]portcullis!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" t="e">
+        <f>'[1]cheval de frise'!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" t="e">
+        <f>[1]moat!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" t="e">
+        <f>[1]ramparts!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" t="e">
+        <f>[1]drawbridge!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" t="e">
+        <f>'[1]sally port'!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" t="e">
+        <f>'[1]rock wall'!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" t="e">
+        <f>'[1]rough terrain'!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" t="e">
+        <f>[1]lowbar!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V3" t="e">
+        <f>[1]climb!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" t="e">
+        <f>[1]rip!L2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>192</v>
+      </c>
+      <c r="B4" t="e">
+        <f>'[1]shot analysis'!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" t="e">
+        <f>'[1]shot analysis'!M4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" t="e">
+        <f>'[1]shot analysis'!N4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" t="e">
+        <f>'[1]shot analysis'!O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" t="e">
+        <f>'[1]shot analysis'!AA4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" t="e">
+        <f>'[1]shot analysis'!AB4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" t="e">
+        <f>'[1]shot analysis'!AC4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <f>'[1]shot analysis'!AD4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" t="e">
+        <f>[1]portcullis!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" t="e">
+        <f>'[1]cheval de frise'!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" t="e">
+        <f>[1]moat!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" t="e">
+        <f>[1]ramparts!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" t="e">
+        <f>[1]drawbridge!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" t="e">
+        <f>'[1]sally port'!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" t="e">
+        <f>'[1]rock wall'!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" t="e">
+        <f>'[1]rough terrain'!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" t="e">
+        <f>[1]lowbar!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" t="e">
+        <f>[1]climb!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" t="e">
+        <f>[1]rip!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="e">
+        <f>'[1]shot analysis'!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f>'[1]shot analysis'!M5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" t="e">
+        <f>'[1]shot analysis'!N5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" t="e">
+        <f>'[1]shot analysis'!O5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" t="e">
+        <f>'[1]shot analysis'!AA5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <f>'[1]shot analysis'!AB5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>'[1]shot analysis'!AC5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>'[1]shot analysis'!AD5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" t="e">
+        <f>[1]portcullis!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
+        <f>'[1]cheval de frise'!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" t="e">
+        <f>[1]moat!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" t="e">
+        <f>[1]ramparts!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" t="e">
+        <f>[1]drawbridge!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" t="e">
+        <f>'[1]sally port'!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" t="e">
+        <f>'[1]rock wall'!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" t="e">
+        <f>'[1]rough terrain'!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" t="e">
+        <f>[1]lowbar!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" t="e">
+        <f>[1]climb!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" t="e">
+        <f>[1]rip!L4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="e">
+        <f>'[1]shot analysis'!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" t="e">
+        <f>'[1]shot analysis'!M6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" t="e">
+        <f>'[1]shot analysis'!N6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" t="e">
+        <f>'[1]shot analysis'!O6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" t="e">
+        <f>'[1]shot analysis'!AA6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="e">
+        <f>'[1]shot analysis'!AB6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" t="e">
+        <f>'[1]shot analysis'!AC6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" t="e">
+        <f>'[1]shot analysis'!AD6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" t="e">
+        <f>[1]portcullis!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
+        <f>'[1]cheval de frise'!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" t="e">
+        <f>[1]moat!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" t="e">
+        <f>[1]ramparts!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" t="e">
+        <f>[1]drawbridge!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" t="e">
+        <f>'[1]sally port'!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" t="e">
+        <f>'[1]rock wall'!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" t="e">
+        <f>'[1]rough terrain'!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="e">
+        <f>[1]lowbar!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" t="e">
+        <f>[1]climb!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" t="e">
+        <f>[1]rip!L5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="e">
+        <f>'[1]shot analysis'!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" t="e">
+        <f>'[1]shot analysis'!M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" t="e">
+        <f>'[1]shot analysis'!N7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" t="e">
+        <f>'[1]shot analysis'!O7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" t="e">
+        <f>'[1]shot analysis'!AA7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
+        <f>'[1]shot analysis'!AB7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
+        <f>'[1]shot analysis'!AC7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" t="e">
+        <f>'[1]shot analysis'!AD7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" t="e">
+        <f>[1]portcullis!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" t="e">
+        <f>'[1]cheval de frise'!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" t="e">
+        <f>[1]moat!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" t="e">
+        <f>[1]ramparts!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" t="e">
+        <f>[1]drawbridge!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" t="e">
+        <f>'[1]sally port'!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" t="e">
+        <f>'[1]rock wall'!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
+        <f>'[1]rough terrain'!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="e">
+        <f>[1]lowbar!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" t="e">
+        <f>[1]climb!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" t="e">
+        <f>[1]rip!L6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="e">
+        <f>'[1]shot analysis'!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" t="e">
+        <f>'[1]shot analysis'!M8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" t="e">
+        <f>'[1]shot analysis'!N8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" t="e">
+        <f>'[1]shot analysis'!O8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" t="e">
+        <f>'[1]shot analysis'!AA8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f>'[1]shot analysis'!AB8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f>'[1]shot analysis'!AC8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" t="e">
+        <f>'[1]shot analysis'!AD8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="e">
+        <f>[1]portcullis!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f>'[1]cheval de frise'!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>[1]moat!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <f>[1]ramparts!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" t="e">
+        <f>[1]drawbridge!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" t="e">
+        <f>'[1]sally port'!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" t="e">
+        <f>'[1]rock wall'!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" t="e">
+        <f>'[1]rough terrain'!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" t="e">
+        <f>[1]lowbar!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" t="e">
+        <f>[1]climb!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" t="e">
+        <f>[1]rip!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="e">
+        <f>'[1]shot analysis'!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" t="e">
+        <f>'[1]shot analysis'!M9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" t="e">
+        <f>'[1]shot analysis'!N9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" t="e">
+        <f>'[1]shot analysis'!O9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" t="e">
+        <f>'[1]shot analysis'!AA9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f>'[1]shot analysis'!AB9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f>'[1]shot analysis'!AC9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" t="e">
+        <f>'[1]shot analysis'!AD9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" t="e">
+        <f>[1]portcullis!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" t="e">
+        <f>'[1]cheval de frise'!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <f>[1]moat!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <f>[1]ramparts!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <f>[1]drawbridge!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="e">
+        <f>'[1]sally port'!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" t="e">
+        <f>'[1]rock wall'!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <f>'[1]rough terrain'!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f>[1]lowbar!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <f>[1]climb!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" t="e">
+        <f>[1]rip!L8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="e">
+        <f>'[1]shot analysis'!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" t="e">
+        <f>'[1]shot analysis'!M10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" t="e">
+        <f>'[1]shot analysis'!N10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" t="e">
+        <f>'[1]shot analysis'!O10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" t="e">
+        <f>'[1]shot analysis'!AA10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <f>'[1]shot analysis'!AB10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" t="e">
+        <f>'[1]shot analysis'!AC10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" t="e">
+        <f>'[1]shot analysis'!AD10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" t="e">
+        <f>[1]portcullis!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f>'[1]cheval de frise'!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <f>[1]moat!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <f>[1]ramparts!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f>[1]drawbridge!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="e">
+        <f>'[1]sally port'!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" t="e">
+        <f>'[1]rock wall'!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <f>'[1]rough terrain'!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f>[1]lowbar!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <f>[1]climb!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" t="e">
+        <f>[1]rip!L9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="e">
+        <f>'[1]shot analysis'!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11" t="e">
+        <f>'[1]shot analysis'!M11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" t="e">
+        <f>'[1]shot analysis'!N11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" t="e">
+        <f>'[1]shot analysis'!O11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" t="e">
+        <f>'[1]shot analysis'!AA11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <f>'[1]shot analysis'!AB11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" t="e">
+        <f>'[1]shot analysis'!AC11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f>'[1]shot analysis'!AD11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" t="e">
+        <f>[1]portcullis!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <f>'[1]cheval de frise'!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <f>[1]moat!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
+        <f>[1]ramparts!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <f>[1]drawbridge!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
+        <f>'[1]sally port'!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" t="e">
+        <f>'[1]rock wall'!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <f>'[1]rough terrain'!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f>[1]lowbar!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <f>[1]climb!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" t="e">
+        <f>[1]rip!L10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="e">
+        <f>'[1]shot analysis'!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="e">
+        <f>'[1]shot analysis'!M12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" t="e">
+        <f>'[1]shot analysis'!N12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" t="e">
+        <f>'[1]shot analysis'!O12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" t="e">
+        <f>'[1]shot analysis'!AA12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f>'[1]shot analysis'!AB12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" t="e">
+        <f>'[1]shot analysis'!AC12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" t="e">
+        <f>'[1]shot analysis'!AD12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" t="e">
+        <f>[1]portcullis!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" t="e">
+        <f>'[1]cheval de frise'!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <f>[1]moat!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <f>[1]ramparts!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <f>[1]drawbridge!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <f>'[1]sally port'!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <f>'[1]rock wall'!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <f>'[1]rough terrain'!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f>[1]lowbar!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <f>[1]climb!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" t="e">
+        <f>[1]rip!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="e">
+        <f>'[1]shot analysis'!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" t="e">
+        <f>'[1]shot analysis'!M13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" t="e">
+        <f>'[1]shot analysis'!N13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" t="e">
+        <f>'[1]shot analysis'!O13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" t="e">
+        <f>'[1]shot analysis'!AA13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <f>'[1]shot analysis'!AB13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="e">
+        <f>'[1]shot analysis'!AC13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <f>'[1]shot analysis'!AD13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" t="e">
+        <f>[1]portcullis!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <f>'[1]cheval de frise'!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f>[1]moat!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" t="e">
+        <f>[1]ramparts!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <f>[1]drawbridge!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f>'[1]sally port'!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <f>'[1]rock wall'!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <f>'[1]rough terrain'!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f>[1]lowbar!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <f>[1]climb!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" t="e">
+        <f>[1]rip!L12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="e">
+        <f>'[1]shot analysis'!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" t="e">
+        <f>'[1]shot analysis'!M14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" t="e">
+        <f>'[1]shot analysis'!N14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" t="e">
+        <f>'[1]shot analysis'!O14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" t="e">
+        <f>'[1]shot analysis'!AA14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <f>'[1]shot analysis'!AB14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="e">
+        <f>'[1]shot analysis'!AC14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" t="e">
+        <f>'[1]shot analysis'!AD14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" t="e">
+        <f>[1]portcullis!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="e">
+        <f>'[1]cheval de frise'!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" t="e">
+        <f>[1]moat!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" t="e">
+        <f>[1]ramparts!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <f>[1]drawbridge!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" t="e">
+        <f>'[1]sally port'!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <f>'[1]rock wall'!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <f>'[1]rough terrain'!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f>[1]lowbar!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <f>[1]climb!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" t="e">
+        <f>[1]rip!L13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="e">
+        <f>'[1]shot analysis'!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" t="e">
+        <f>'[1]shot analysis'!M15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" t="e">
+        <f>'[1]shot analysis'!N15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" t="e">
+        <f>'[1]shot analysis'!O15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" t="e">
+        <f>'[1]shot analysis'!AA15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" t="e">
+        <f>'[1]shot analysis'!AB15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f>'[1]shot analysis'!AC15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="e">
+        <f>'[1]shot analysis'!AD15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" t="e">
+        <f>[1]portcullis!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" t="e">
+        <f>'[1]cheval de frise'!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" t="e">
+        <f>[1]moat!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" t="e">
+        <f>[1]ramparts!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <f>[1]drawbridge!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" t="e">
+        <f>'[1]sally port'!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <f>'[1]rock wall'!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <f>'[1]rough terrain'!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f>[1]lowbar!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <f>[1]climb!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" t="e">
+        <f>[1]rip!L14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="e">
+        <f>'[1]shot analysis'!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" t="e">
+        <f>'[1]shot analysis'!M16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" t="e">
+        <f>'[1]shot analysis'!N16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" t="e">
+        <f>'[1]shot analysis'!O16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" t="e">
+        <f>'[1]shot analysis'!AA16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <f>'[1]shot analysis'!AB16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" t="e">
+        <f>'[1]shot analysis'!AC16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="e">
+        <f>'[1]shot analysis'!AD16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" t="e">
+        <f>[1]portcullis!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" t="e">
+        <f>'[1]cheval de frise'!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
+        <f>[1]moat!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" t="e">
+        <f>[1]ramparts!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <f>[1]drawbridge!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
+        <f>'[1]sally port'!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <f>'[1]rock wall'!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <f>'[1]rough terrain'!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f>[1]lowbar!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <f>[1]climb!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" t="e">
+        <f>[1]rip!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="e">
+        <f>'[1]shot analysis'!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" t="e">
+        <f>'[1]shot analysis'!M17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" t="e">
+        <f>'[1]shot analysis'!N17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <f>'[1]shot analysis'!O17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" t="e">
+        <f>'[1]shot analysis'!AA17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f>'[1]shot analysis'!AB17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" t="e">
+        <f>'[1]shot analysis'!AC17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
+        <f>'[1]shot analysis'!AD17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" t="e">
+        <f>[1]portcullis!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" t="e">
+        <f>'[1]cheval de frise'!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" t="e">
+        <f>[1]moat!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" t="e">
+        <f>[1]ramparts!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <f>[1]drawbridge!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="e">
+        <f>'[1]sally port'!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <f>'[1]rock wall'!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <f>'[1]rough terrain'!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f>[1]lowbar!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <f>[1]climb!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" t="e">
+        <f>[1]rip!L16</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="e">
+        <f>'[1]shot analysis'!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" t="e">
+        <f>'[1]shot analysis'!M18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" t="e">
+        <f>'[1]shot analysis'!N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" t="e">
+        <f>'[1]shot analysis'!O18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" t="e">
+        <f>'[1]shot analysis'!AA18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f>'[1]shot analysis'!AB18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
+        <f>'[1]shot analysis'!AC18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
+        <f>'[1]shot analysis'!AD18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" t="e">
+        <f>[1]portcullis!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" t="e">
+        <f>'[1]cheval de frise'!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" t="e">
+        <f>[1]moat!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" t="e">
+        <f>[1]ramparts!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <f>[1]drawbridge!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
+        <f>'[1]sally port'!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" t="e">
+        <f>'[1]rock wall'!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <f>'[1]rough terrain'!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f>[1]lowbar!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <f>[1]climb!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W18" t="e">
+        <f>[1]rip!L17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="e">
+        <f>'[1]shot analysis'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" t="e">
+        <f>'[1]shot analysis'!M19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" t="e">
+        <f>'[1]shot analysis'!N19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" t="e">
+        <f>'[1]shot analysis'!O19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" t="e">
+        <f>'[1]shot analysis'!AA19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f>'[1]shot analysis'!AB19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f>'[1]shot analysis'!AC19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
+        <f>'[1]shot analysis'!AD19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" t="e">
+        <f>[1]portcullis!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" t="e">
+        <f>'[1]cheval de frise'!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" t="e">
+        <f>[1]moat!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" t="e">
+        <f>[1]ramparts!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <f>[1]drawbridge!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
+        <f>'[1]sally port'!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" t="e">
+        <f>'[1]rock wall'!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <f>'[1]rough terrain'!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f>[1]lowbar!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <f>[1]climb!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" t="e">
+        <f>[1]rip!L18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="e">
+        <f>'[1]shot analysis'!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" t="e">
+        <f>'[1]shot analysis'!M20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" t="e">
+        <f>'[1]shot analysis'!N20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" t="e">
+        <f>'[1]shot analysis'!O20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" t="e">
+        <f>'[1]shot analysis'!AA20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <f>'[1]shot analysis'!AB20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" t="e">
+        <f>'[1]shot analysis'!AC20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" t="e">
+        <f>'[1]shot analysis'!AD20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" t="e">
+        <f>[1]portcullis!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" t="e">
+        <f>'[1]cheval de frise'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <f>[1]moat!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" t="e">
+        <f>[1]ramparts!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <f>[1]drawbridge!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" t="e">
+        <f>'[1]sally port'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" t="e">
+        <f>'[1]rock wall'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" t="e">
+        <f>'[1]rough terrain'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f>[1]lowbar!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <f>[1]climb!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" t="e">
+        <f>[1]rip!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="e">
+        <f>'[1]shot analysis'!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21" t="e">
+        <f>'[1]shot analysis'!M21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" t="e">
+        <f>'[1]shot analysis'!N21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" t="e">
+        <f>'[1]shot analysis'!O21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" t="e">
+        <f>'[1]shot analysis'!AA21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f>'[1]shot analysis'!AB21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" t="e">
+        <f>'[1]shot analysis'!AC21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <f>'[1]shot analysis'!AD21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" t="e">
+        <f>[1]portcullis!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" t="e">
+        <f>'[1]cheval de frise'!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <f>[1]moat!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" t="e">
+        <f>[1]ramparts!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <f>[1]drawbridge!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" t="e">
+        <f>'[1]sally port'!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" t="e">
+        <f>'[1]rock wall'!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" t="e">
+        <f>'[1]rough terrain'!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <f>[1]lowbar!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <f>[1]climb!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" t="e">
+        <f>[1]rip!L20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="e">
+        <f>'[1]shot analysis'!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22" t="e">
+        <f>'[1]shot analysis'!M22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>'[1]shot analysis'!N22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" t="e">
+        <f>'[1]shot analysis'!O22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" t="e">
+        <f>'[1]shot analysis'!AA22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f>'[1]shot analysis'!AB22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>'[1]shot analysis'!AC22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f>'[1]shot analysis'!AD22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" t="e">
+        <f>[1]portcullis!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" t="e">
+        <f>'[1]cheval de frise'!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" t="e">
+        <f>[1]moat!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" t="e">
+        <f>[1]ramparts!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <f>[1]drawbridge!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" t="e">
+        <f>'[1]sally port'!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" t="e">
+        <f>'[1]rock wall'!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" t="e">
+        <f>'[1]rough terrain'!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <f>[1]lowbar!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" t="e">
+        <f>[1]climb!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" t="e">
+        <f>[1]rip!L21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="e">
+        <f>'[1]shot analysis'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23" t="e">
+        <f>'[1]shot analysis'!M23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" t="e">
+        <f>'[1]shot analysis'!N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" t="e">
+        <f>'[1]shot analysis'!O23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" t="e">
+        <f>'[1]shot analysis'!AA23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f>'[1]shot analysis'!AB23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f>'[1]shot analysis'!AC23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" t="e">
+        <f>'[1]shot analysis'!AD23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" t="e">
+        <f>[1]portcullis!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" t="e">
+        <f>'[1]cheval de frise'!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" t="e">
+        <f>[1]moat!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" t="e">
+        <f>[1]ramparts!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" t="e">
+        <f>[1]drawbridge!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" t="e">
+        <f>'[1]sally port'!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" t="e">
+        <f>'[1]rock wall'!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" t="e">
+        <f>'[1]rough terrain'!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" t="e">
+        <f>[1]lowbar!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" t="e">
+        <f>[1]climb!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" t="e">
+        <f>[1]rip!L22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="e">
+        <f>'[1]shot analysis'!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" t="e">
+        <f>'[1]shot analysis'!M24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" t="e">
+        <f>'[1]shot analysis'!N24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" t="e">
+        <f>'[1]shot analysis'!O24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
+        <f>'[1]shot analysis'!AA24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f>'[1]shot analysis'!AB24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f>'[1]shot analysis'!AC24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" t="e">
+        <f>'[1]shot analysis'!AD24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" t="e">
+        <f>[1]portcullis!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="e">
+        <f>'[1]cheval de frise'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f>[1]moat!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" t="e">
+        <f>[1]ramparts!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <f>[1]drawbridge!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" t="e">
+        <f>'[1]sally port'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" t="e">
+        <f>'[1]rock wall'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" t="e">
+        <f>'[1]rough terrain'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
+        <f>[1]lowbar!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
+        <f>[1]climb!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" t="e">
+        <f>[1]rip!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="e">
+        <f>'[1]shot analysis'!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" t="e">
+        <f>'[1]shot analysis'!M25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" t="e">
+        <f>'[1]shot analysis'!N25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" t="e">
+        <f>'[1]shot analysis'!O25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" t="e">
+        <f>'[1]shot analysis'!AA25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" t="e">
+        <f>'[1]shot analysis'!AB25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" t="e">
+        <f>'[1]shot analysis'!AC25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" t="e">
+        <f>'[1]shot analysis'!AD25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" t="e">
+        <f>[1]portcullis!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" t="e">
+        <f>'[1]cheval de frise'!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <f>[1]moat!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" t="e">
+        <f>[1]ramparts!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" t="e">
+        <f>[1]drawbridge!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" t="e">
+        <f>'[1]sally port'!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" t="e">
+        <f>'[1]rock wall'!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" t="e">
+        <f>'[1]rough terrain'!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" t="e">
+        <f>[1]lowbar!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" t="e">
+        <f>[1]climb!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" t="e">
+        <f>[1]rip!L24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="e">
+        <f>'[1]shot analysis'!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" t="e">
+        <f>'[1]shot analysis'!M26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" t="e">
+        <f>'[1]shot analysis'!N26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" t="e">
+        <f>'[1]shot analysis'!O26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" t="e">
+        <f>'[1]shot analysis'!AA26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" t="e">
+        <f>'[1]shot analysis'!AB26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" t="e">
+        <f>'[1]shot analysis'!AC26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" t="e">
+        <f>'[1]shot analysis'!AD26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" t="e">
+        <f>[1]portcullis!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" t="e">
+        <f>'[1]cheval de frise'!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" t="e">
+        <f>[1]moat!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" t="e">
+        <f>[1]ramparts!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" t="e">
+        <f>[1]drawbridge!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" t="e">
+        <f>'[1]sally port'!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" t="e">
+        <f>'[1]rock wall'!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" t="e">
+        <f>'[1]rough terrain'!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" t="e">
+        <f>[1]lowbar!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" t="e">
+        <f>[1]climb!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" t="e">
+        <f>[1]rip!L25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="e">
+        <f>'[1]shot analysis'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" t="e">
+        <f>'[1]shot analysis'!M27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" t="e">
+        <f>'[1]shot analysis'!N27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" t="e">
+        <f>'[1]shot analysis'!O27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" t="e">
+        <f>'[1]shot analysis'!AA27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
+        <f>'[1]shot analysis'!AB27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" t="e">
+        <f>'[1]shot analysis'!AC27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
+        <f>'[1]shot analysis'!AD27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" t="e">
+        <f>[1]portcullis!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" t="e">
+        <f>'[1]cheval de frise'!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" t="e">
+        <f>[1]moat!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" t="e">
+        <f>[1]ramparts!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" t="e">
+        <f>[1]drawbridge!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" t="e">
+        <f>'[1]sally port'!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" t="e">
+        <f>'[1]rock wall'!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" t="e">
+        <f>'[1]rough terrain'!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" t="e">
+        <f>[1]lowbar!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" t="e">
+        <f>[1]climb!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" t="e">
+        <f>[1]rip!L26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="e">
+        <f>'[1]shot analysis'!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" t="e">
+        <f>'[1]shot analysis'!M28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" t="e">
+        <f>'[1]shot analysis'!N28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" t="e">
+        <f>'[1]shot analysis'!O28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" t="e">
+        <f>'[1]shot analysis'!AA28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <f>'[1]shot analysis'!AB28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" t="e">
+        <f>'[1]shot analysis'!AC28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" t="e">
+        <f>'[1]shot analysis'!AD28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" t="e">
+        <f>[1]portcullis!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" t="e">
+        <f>'[1]cheval de frise'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" t="e">
+        <f>[1]moat!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" t="e">
+        <f>[1]ramparts!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" t="e">
+        <f>[1]drawbridge!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" t="e">
+        <f>'[1]sally port'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" t="e">
+        <f>'[1]rock wall'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" t="e">
+        <f>'[1]rough terrain'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" t="e">
+        <f>[1]lowbar!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" t="e">
+        <f>[1]climb!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" t="e">
+        <f>[1]rip!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="e">
+        <f>'[1]shot analysis'!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" t="e">
+        <f>'[1]shot analysis'!M29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" t="e">
+        <f>'[1]shot analysis'!N29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" t="e">
+        <f>'[1]shot analysis'!O29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" t="e">
+        <f>'[1]shot analysis'!AA29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" t="e">
+        <f>'[1]shot analysis'!AB29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" t="e">
+        <f>'[1]shot analysis'!AC29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" t="e">
+        <f>'[1]shot analysis'!AD29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" t="e">
+        <f>[1]portcullis!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" t="e">
+        <f>'[1]cheval de frise'!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" t="e">
+        <f>[1]moat!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" t="e">
+        <f>[1]ramparts!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" t="e">
+        <f>[1]drawbridge!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" t="e">
+        <f>'[1]sally port'!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" t="e">
+        <f>'[1]rock wall'!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" t="e">
+        <f>'[1]rough terrain'!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" t="e">
+        <f>[1]lowbar!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" t="e">
+        <f>[1]climb!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" t="e">
+        <f>[1]rip!L28</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="e">
+        <f>'[1]shot analysis'!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30" t="e">
+        <f>'[1]shot analysis'!M30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" t="e">
+        <f>'[1]shot analysis'!N30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" t="e">
+        <f>'[1]shot analysis'!O30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" t="e">
+        <f>'[1]shot analysis'!AA30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" t="e">
+        <f>'[1]shot analysis'!AB30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" t="e">
+        <f>'[1]shot analysis'!AC30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" t="e">
+        <f>'[1]shot analysis'!AD30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" t="e">
+        <f>[1]portcullis!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" t="e">
+        <f>'[1]cheval de frise'!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" t="e">
+        <f>[1]moat!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" t="e">
+        <f>[1]ramparts!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" t="e">
+        <f>[1]drawbridge!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" t="e">
+        <f>'[1]sally port'!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" t="e">
+        <f>'[1]rock wall'!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" t="e">
+        <f>'[1]rough terrain'!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" t="e">
+        <f>[1]lowbar!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" t="e">
+        <f>[1]climb!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W30" t="e">
+        <f>[1]rip!L29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="e">
+        <f>'[1]shot analysis'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" t="e">
+        <f>'[1]shot analysis'!M31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" t="e">
+        <f>'[1]shot analysis'!N31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f>'[1]shot analysis'!O31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <f>'[1]shot analysis'!AA31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f>'[1]shot analysis'!AB31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f>'[1]shot analysis'!AC31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <f>'[1]shot analysis'!AD31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" t="e">
+        <f>[1]portcullis!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" t="e">
+        <f>'[1]cheval de frise'!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" t="e">
+        <f>[1]moat!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" t="e">
+        <f>[1]ramparts!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" t="e">
+        <f>[1]drawbridge!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" t="e">
+        <f>'[1]sally port'!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" t="e">
+        <f>'[1]rock wall'!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" t="e">
+        <f>'[1]rough terrain'!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" t="e">
+        <f>[1]lowbar!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" t="e">
+        <f>[1]climb!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W31" t="e">
+        <f>[1]rip!L30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="e">
+        <f>'[1]shot analysis'!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" t="e">
+        <f>'[1]shot analysis'!M32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" t="e">
+        <f>'[1]shot analysis'!N32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" t="e">
+        <f>'[1]shot analysis'!O32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" t="e">
+        <f>'[1]shot analysis'!AA32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <f>'[1]shot analysis'!AB32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" t="e">
+        <f>'[1]shot analysis'!AC32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" t="e">
+        <f>'[1]shot analysis'!AD32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" t="e">
+        <f>[1]portcullis!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" t="e">
+        <f>'[1]cheval de frise'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <f>[1]moat!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" t="e">
+        <f>[1]ramparts!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" t="e">
+        <f>[1]drawbridge!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" t="e">
+        <f>'[1]sally port'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" t="e">
+        <f>'[1]rock wall'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" t="e">
+        <f>'[1]rough terrain'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" t="e">
+        <f>[1]lowbar!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" t="e">
+        <f>[1]climb!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W32" t="e">
+        <f>[1]rip!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="e">
+        <f>'[1]shot analysis'!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" t="e">
+        <f>'[1]shot analysis'!M33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" t="e">
+        <f>'[1]shot analysis'!N33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" t="e">
+        <f>'[1]shot analysis'!O33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" t="e">
+        <f>'[1]shot analysis'!AA33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" t="e">
+        <f>'[1]shot analysis'!AB33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" t="e">
+        <f>'[1]shot analysis'!AC33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" t="e">
+        <f>'[1]shot analysis'!AD33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" t="e">
+        <f>[1]portcullis!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" t="e">
+        <f>'[1]cheval de frise'!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" t="e">
+        <f>[1]moat!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" t="e">
+        <f>[1]ramparts!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" t="e">
+        <f>[1]drawbridge!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" t="e">
+        <f>'[1]sally port'!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" t="e">
+        <f>'[1]rock wall'!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" t="e">
+        <f>'[1]rough terrain'!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" t="e">
+        <f>[1]lowbar!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" t="e">
+        <f>[1]climb!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W33" t="e">
+        <f>[1]rip!L32</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="e">
+        <f>'[1]shot analysis'!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" t="e">
+        <f>'[1]shot analysis'!M34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" t="e">
+        <f>'[1]shot analysis'!N34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" t="e">
+        <f>'[1]shot analysis'!O34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" t="e">
+        <f>'[1]shot analysis'!AA34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" t="e">
+        <f>'[1]shot analysis'!AB34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" t="e">
+        <f>'[1]shot analysis'!AC34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" t="e">
+        <f>'[1]shot analysis'!AD34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" t="e">
+        <f>[1]portcullis!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" t="e">
+        <f>'[1]cheval de frise'!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" t="e">
+        <f>[1]moat!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" t="e">
+        <f>[1]ramparts!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" t="e">
+        <f>[1]drawbridge!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q34" t="e">
+        <f>'[1]sally port'!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R34" t="e">
+        <f>'[1]rock wall'!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" t="e">
+        <f>'[1]rough terrain'!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" t="e">
+        <f>[1]lowbar!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V34" t="e">
+        <f>[1]climb!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W34" t="e">
+        <f>[1]rip!L33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="e">
+        <f>'[1]shot analysis'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" t="e">
+        <f>'[1]shot analysis'!M35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" t="e">
+        <f>'[1]shot analysis'!N35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" t="e">
+        <f>'[1]shot analysis'!O35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" t="e">
+        <f>'[1]shot analysis'!AA35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" t="e">
+        <f>'[1]shot analysis'!AB35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" t="e">
+        <f>'[1]shot analysis'!AC35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" t="e">
+        <f>'[1]shot analysis'!AD35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" t="e">
+        <f>[1]portcullis!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" t="e">
+        <f>'[1]cheval de frise'!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" t="e">
+        <f>[1]moat!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" t="e">
+        <f>[1]ramparts!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" t="e">
+        <f>[1]drawbridge!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" t="e">
+        <f>'[1]sally port'!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" t="e">
+        <f>'[1]rock wall'!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" t="e">
+        <f>'[1]rough terrain'!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" t="e">
+        <f>[1]lowbar!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" t="e">
+        <f>[1]climb!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" t="e">
+        <f>[1]rip!L34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="e">
+        <f>'[1]shot analysis'!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" t="e">
+        <f>'[1]shot analysis'!M36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" t="e">
+        <f>'[1]shot analysis'!N36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" t="e">
+        <f>'[1]shot analysis'!O36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" t="e">
+        <f>'[1]shot analysis'!AA36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" t="e">
+        <f>'[1]shot analysis'!AB36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" t="e">
+        <f>'[1]shot analysis'!AC36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" t="e">
+        <f>'[1]shot analysis'!AD36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" t="e">
+        <f>[1]portcullis!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" t="e">
+        <f>'[1]cheval de frise'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" t="e">
+        <f>[1]moat!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" t="e">
+        <f>[1]ramparts!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" t="e">
+        <f>[1]drawbridge!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" t="e">
+        <f>'[1]sally port'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" t="e">
+        <f>'[1]rock wall'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" t="e">
+        <f>'[1]rough terrain'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" t="e">
+        <f>[1]lowbar!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" t="e">
+        <f>[1]climb!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" t="e">
+        <f>[1]rip!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="e">
+        <f>'[1]shot analysis'!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" t="e">
+        <f>'[1]shot analysis'!M37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" t="e">
+        <f>'[1]shot analysis'!N37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" t="e">
+        <f>'[1]shot analysis'!O37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" t="e">
+        <f>'[1]shot analysis'!AA37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" t="e">
+        <f>'[1]shot analysis'!AB37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" t="e">
+        <f>'[1]shot analysis'!AC37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" t="e">
+        <f>'[1]shot analysis'!AD37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" t="e">
+        <f>[1]portcullis!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" t="e">
+        <f>'[1]cheval de frise'!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" t="e">
+        <f>[1]moat!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" t="e">
+        <f>[1]ramparts!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" t="e">
+        <f>[1]drawbridge!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" t="e">
+        <f>'[1]sally port'!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" t="e">
+        <f>'[1]rock wall'!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" t="e">
+        <f>'[1]rough terrain'!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" t="e">
+        <f>[1]lowbar!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V37" t="e">
+        <f>[1]climb!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W37" t="e">
+        <f>[1]rip!L36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="e">
+        <f>'[1]shot analysis'!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" t="e">
+        <f>'[1]shot analysis'!M38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" t="e">
+        <f>'[1]shot analysis'!N38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" t="e">
+        <f>'[1]shot analysis'!O38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" t="e">
+        <f>'[1]shot analysis'!AA38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" t="e">
+        <f>'[1]shot analysis'!AB38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" t="e">
+        <f>'[1]shot analysis'!AC38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" t="e">
+        <f>'[1]shot analysis'!AD38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" t="e">
+        <f>[1]portcullis!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" t="e">
+        <f>'[1]cheval de frise'!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" t="e">
+        <f>[1]moat!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" t="e">
+        <f>[1]ramparts!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" t="e">
+        <f>[1]drawbridge!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" t="e">
+        <f>'[1]sally port'!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" t="e">
+        <f>'[1]rock wall'!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" t="e">
+        <f>'[1]rough terrain'!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" t="e">
+        <f>[1]lowbar!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V38" t="e">
+        <f>[1]climb!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" t="e">
+        <f>[1]rip!L37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="e">
+        <f>'[1]shot analysis'!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" t="e">
+        <f>'[1]shot analysis'!M39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" t="e">
+        <f>'[1]shot analysis'!N39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" t="e">
+        <f>'[1]shot analysis'!O39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" t="e">
+        <f>'[1]shot analysis'!AA39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f>'[1]shot analysis'!AB39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" t="e">
+        <f>'[1]shot analysis'!AC39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" t="e">
+        <f>'[1]shot analysis'!AD39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" t="e">
+        <f>[1]portcullis!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" t="e">
+        <f>'[1]cheval de frise'!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" t="e">
+        <f>[1]moat!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" t="e">
+        <f>[1]ramparts!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" t="e">
+        <f>[1]drawbridge!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" t="e">
+        <f>'[1]sally port'!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" t="e">
+        <f>'[1]rock wall'!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" t="e">
+        <f>'[1]rough terrain'!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" t="e">
+        <f>[1]lowbar!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V39" t="e">
+        <f>[1]climb!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W39" t="e">
+        <f>[1]rip!L38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="e">
+        <f>'[1]shot analysis'!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" t="e">
+        <f>'[1]shot analysis'!M40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" t="e">
+        <f>'[1]shot analysis'!N40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" t="e">
+        <f>'[1]shot analysis'!O40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" t="e">
+        <f>'[1]shot analysis'!AA40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f>'[1]shot analysis'!AB40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" t="e">
+        <f>'[1]shot analysis'!AC40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" t="e">
+        <f>'[1]shot analysis'!AD40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" t="e">
+        <f>[1]portcullis!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
+        <f>'[1]cheval de frise'!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f>[1]moat!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" t="e">
+        <f>[1]ramparts!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" t="e">
+        <f>[1]drawbridge!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" t="e">
+        <f>'[1]sally port'!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" t="e">
+        <f>'[1]rock wall'!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" t="e">
+        <f>'[1]rough terrain'!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" t="e">
+        <f>[1]lowbar!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" t="e">
+        <f>[1]climb!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" t="e">
+        <f>[1]rip!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="e">
+        <f>'[1]shot analysis'!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" t="e">
+        <f>'[1]shot analysis'!M41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" t="e">
+        <f>'[1]shot analysis'!N41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" t="e">
+        <f>'[1]shot analysis'!O41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" t="e">
+        <f>'[1]shot analysis'!AA41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f>'[1]shot analysis'!AB41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" t="e">
+        <f>'[1]shot analysis'!AC41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" t="e">
+        <f>'[1]shot analysis'!AD41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" t="e">
+        <f>[1]portcullis!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" t="e">
+        <f>'[1]cheval de frise'!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" t="e">
+        <f>[1]moat!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" t="e">
+        <f>[1]ramparts!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" t="e">
+        <f>[1]drawbridge!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" t="e">
+        <f>'[1]sally port'!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" t="e">
+        <f>'[1]rock wall'!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" t="e">
+        <f>'[1]rough terrain'!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" t="e">
+        <f>[1]lowbar!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" t="e">
+        <f>[1]climb!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" t="e">
+        <f>[1]rip!L40</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="e">
+        <f>'[1]shot analysis'!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C42" t="e">
+        <f>'[1]shot analysis'!M42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" t="e">
+        <f>'[1]shot analysis'!N42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" t="e">
+        <f>'[1]shot analysis'!O42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" t="e">
+        <f>'[1]shot analysis'!AA42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" t="e">
+        <f>'[1]shot analysis'!AB42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" t="e">
+        <f>'[1]shot analysis'!AC42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" t="e">
+        <f>'[1]shot analysis'!AD42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" t="e">
+        <f>[1]portcullis!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" t="e">
+        <f>'[1]cheval de frise'!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" t="e">
+        <f>[1]moat!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" t="e">
+        <f>[1]ramparts!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P42" t="e">
+        <f>[1]drawbridge!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q42" t="e">
+        <f>'[1]sally port'!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R42" t="e">
+        <f>'[1]rock wall'!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" t="e">
+        <f>'[1]rough terrain'!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" t="e">
+        <f>[1]lowbar!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V42" t="e">
+        <f>[1]climb!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W42" t="e">
+        <f>[1]rip!L41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="e">
+        <f>'[1]shot analysis'!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C43" t="e">
+        <f>'[1]shot analysis'!M43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" t="e">
+        <f>'[1]shot analysis'!N43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" t="e">
+        <f>'[1]shot analysis'!O43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" t="e">
+        <f>'[1]shot analysis'!AA43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" t="e">
+        <f>'[1]shot analysis'!AB43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" t="e">
+        <f>'[1]shot analysis'!AC43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" t="e">
+        <f>'[1]shot analysis'!AD43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" t="e">
+        <f>[1]portcullis!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" t="e">
+        <f>'[1]cheval de frise'!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" t="e">
+        <f>[1]moat!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" t="e">
+        <f>[1]ramparts!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" t="e">
+        <f>[1]drawbridge!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" t="e">
+        <f>'[1]sally port'!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R43" t="e">
+        <f>'[1]rock wall'!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" t="e">
+        <f>'[1]rough terrain'!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" t="e">
+        <f>[1]lowbar!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" t="e">
+        <f>[1]climb!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" t="e">
+        <f>[1]rip!L42</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="e">
+        <f>'[1]shot analysis'!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C44" t="e">
+        <f>'[1]shot analysis'!M44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" t="e">
+        <f>'[1]shot analysis'!N44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" t="e">
+        <f>'[1]shot analysis'!O44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" t="e">
+        <f>'[1]shot analysis'!AA44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" t="e">
+        <f>'[1]shot analysis'!AB44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" t="e">
+        <f>'[1]shot analysis'!AC44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" t="e">
+        <f>'[1]shot analysis'!AD44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" t="e">
+        <f>[1]portcullis!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" t="e">
+        <f>'[1]cheval de frise'!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" t="e">
+        <f>[1]moat!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" t="e">
+        <f>[1]ramparts!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P44" t="e">
+        <f>[1]drawbridge!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" t="e">
+        <f>'[1]sally port'!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" t="e">
+        <f>'[1]rock wall'!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" t="e">
+        <f>'[1]rough terrain'!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" t="e">
+        <f>[1]lowbar!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" t="e">
+        <f>[1]climb!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" t="e">
+        <f>[1]rip!L43</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="e">
+        <f>'[1]shot analysis'!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C45" t="e">
+        <f>'[1]shot analysis'!M45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D45" t="e">
+        <f>'[1]shot analysis'!N45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" t="e">
+        <f>'[1]shot analysis'!O45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" t="e">
+        <f>'[1]shot analysis'!AA45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="e">
+        <f>'[1]shot analysis'!AB45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" t="e">
+        <f>'[1]shot analysis'!AC45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" t="e">
+        <f>'[1]shot analysis'!AD45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" t="e">
+        <f>[1]portcullis!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" t="e">
+        <f>'[1]cheval de frise'!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" t="e">
+        <f>[1]moat!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" t="e">
+        <f>[1]ramparts!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" t="e">
+        <f>[1]drawbridge!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" t="e">
+        <f>'[1]sally port'!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" t="e">
+        <f>'[1]rock wall'!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" t="e">
+        <f>'[1]rough terrain'!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" t="e">
+        <f>[1]lowbar!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" t="e">
+        <f>[1]climb!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" t="e">
+        <f>[1]rip!L44</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="e">
+        <f>'[1]shot analysis'!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46" t="e">
+        <f>'[1]shot analysis'!M46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" t="e">
+        <f>'[1]shot analysis'!N46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" t="e">
+        <f>'[1]shot analysis'!O46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" t="e">
+        <f>'[1]shot analysis'!AA46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" t="e">
+        <f>'[1]shot analysis'!AB46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" t="e">
+        <f>'[1]shot analysis'!AC46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" t="e">
+        <f>'[1]shot analysis'!AD46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" t="e">
+        <f>[1]portcullis!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" t="e">
+        <f>'[1]cheval de frise'!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" t="e">
+        <f>[1]moat!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" t="e">
+        <f>[1]ramparts!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" t="e">
+        <f>[1]drawbridge!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" t="e">
+        <f>'[1]sally port'!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" t="e">
+        <f>'[1]rock wall'!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" t="e">
+        <f>'[1]rough terrain'!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" t="e">
+        <f>[1]lowbar!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" t="e">
+        <f>[1]climb!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" t="e">
+        <f>[1]rip!L45</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="e">
+        <f>'[1]shot analysis'!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C47" t="e">
+        <f>'[1]shot analysis'!M47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" t="e">
+        <f>'[1]shot analysis'!N47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" t="e">
+        <f>'[1]shot analysis'!O47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" t="e">
+        <f>'[1]shot analysis'!AA47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" t="e">
+        <f>'[1]shot analysis'!AB47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" t="e">
+        <f>'[1]shot analysis'!AC47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" t="e">
+        <f>'[1]shot analysis'!AD47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" t="e">
+        <f>[1]portcullis!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" t="e">
+        <f>'[1]cheval de frise'!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" t="e">
+        <f>[1]moat!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" t="e">
+        <f>[1]ramparts!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P47" t="e">
+        <f>[1]drawbridge!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q47" t="e">
+        <f>'[1]sally port'!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" t="e">
+        <f>'[1]rock wall'!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" t="e">
+        <f>'[1]rough terrain'!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" t="e">
+        <f>[1]lowbar!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V47" t="e">
+        <f>[1]climb!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W47" t="e">
+        <f>[1]rip!L46</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="e">
+        <f>'[1]shot analysis'!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48" t="e">
+        <f>'[1]shot analysis'!M48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" t="e">
+        <f>'[1]shot analysis'!N48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" t="e">
+        <f>'[1]shot analysis'!O48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" t="e">
+        <f>'[1]shot analysis'!AA48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" t="e">
+        <f>'[1]shot analysis'!AB48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" t="e">
+        <f>'[1]shot analysis'!AC48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" t="e">
+        <f>'[1]shot analysis'!AD48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" t="e">
+        <f>[1]portcullis!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" t="e">
+        <f>'[1]cheval de frise'!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" t="e">
+        <f>[1]moat!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" t="e">
+        <f>[1]ramparts!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P48" t="e">
+        <f>[1]drawbridge!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q48" t="e">
+        <f>'[1]sally port'!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" t="e">
+        <f>'[1]rock wall'!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" t="e">
+        <f>'[1]rough terrain'!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" t="e">
+        <f>[1]lowbar!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V48" t="e">
+        <f>[1]climb!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W48" t="e">
+        <f>[1]rip!L47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="e">
+        <f>'[1]shot analysis'!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49" t="e">
+        <f>'[1]shot analysis'!M49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" t="e">
+        <f>'[1]shot analysis'!N49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" t="e">
+        <f>'[1]shot analysis'!O49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" t="e">
+        <f>'[1]shot analysis'!AA49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" t="e">
+        <f>'[1]shot analysis'!AB49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" t="e">
+        <f>'[1]shot analysis'!AC49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" t="e">
+        <f>'[1]shot analysis'!AD49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" t="e">
+        <f>[1]portcullis!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" t="e">
+        <f>'[1]cheval de frise'!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" t="e">
+        <f>[1]moat!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" t="e">
+        <f>[1]ramparts!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P49" t="e">
+        <f>[1]drawbridge!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q49" t="e">
+        <f>'[1]sally port'!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" t="e">
+        <f>'[1]rock wall'!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" t="e">
+        <f>'[1]rough terrain'!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" t="e">
+        <f>[1]lowbar!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V49" t="e">
+        <f>[1]climb!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W49" t="e">
+        <f>[1]rip!L48</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="e">
+        <f>'[1]shot analysis'!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50" t="e">
+        <f>'[1]shot analysis'!M50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" t="e">
+        <f>'[1]shot analysis'!N50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" t="e">
+        <f>'[1]shot analysis'!O50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" t="e">
+        <f>'[1]shot analysis'!AA50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" t="e">
+        <f>'[1]shot analysis'!AB50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" t="e">
+        <f>'[1]shot analysis'!AC50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J50" t="e">
+        <f>'[1]shot analysis'!AD50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L50" t="e">
+        <f>[1]portcullis!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" t="e">
+        <f>'[1]cheval de frise'!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" t="e">
+        <f>[1]moat!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O50" t="e">
+        <f>[1]ramparts!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P50" t="e">
+        <f>[1]drawbridge!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q50" t="e">
+        <f>'[1]sally port'!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" t="e">
+        <f>'[1]rock wall'!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" t="e">
+        <f>'[1]rough terrain'!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" t="e">
+        <f>[1]lowbar!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V50" t="e">
+        <f>[1]climb!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W50" t="e">
+        <f>[1]rip!L49</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="e">
+        <f>'[1]shot analysis'!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" t="e">
+        <f>'[1]shot analysis'!M51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" t="e">
+        <f>'[1]shot analysis'!N51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" t="e">
+        <f>'[1]shot analysis'!O51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" t="e">
+        <f>'[1]shot analysis'!AA51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" t="e">
+        <f>'[1]shot analysis'!AB51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" t="e">
+        <f>'[1]shot analysis'!AC51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" t="e">
+        <f>'[1]shot analysis'!AD51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" t="e">
+        <f>[1]portcullis!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" t="e">
+        <f>'[1]cheval de frise'!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" t="e">
+        <f>[1]moat!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" t="e">
+        <f>[1]ramparts!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" t="e">
+        <f>[1]drawbridge!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" t="e">
+        <f>'[1]sally port'!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R51" t="e">
+        <f>'[1]rock wall'!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" t="e">
+        <f>'[1]rough terrain'!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" t="e">
+        <f>[1]lowbar!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V51" t="e">
+        <f>[1]climb!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W51" t="e">
+        <f>[1]rip!L50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="e">
+        <f>'[1]shot analysis'!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" t="e">
+        <f>'[1]shot analysis'!M52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" t="e">
+        <f>'[1]shot analysis'!N52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" t="e">
+        <f>'[1]shot analysis'!O52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" t="e">
+        <f>'[1]shot analysis'!AA52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" t="e">
+        <f>'[1]shot analysis'!AB52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" t="e">
+        <f>'[1]shot analysis'!AC52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" t="e">
+        <f>'[1]shot analysis'!AD52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" t="e">
+        <f>[1]portcullis!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" t="e">
+        <f>'[1]cheval de frise'!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N52" t="e">
+        <f>[1]moat!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" t="e">
+        <f>[1]ramparts!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" t="e">
+        <f>[1]drawbridge!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" t="e">
+        <f>'[1]sally port'!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" t="e">
+        <f>'[1]rock wall'!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" t="e">
+        <f>'[1]rough terrain'!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" t="e">
+        <f>[1]lowbar!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V52" t="e">
+        <f>[1]climb!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W52" t="e">
+        <f>[1]rip!L51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="e">
+        <f>'[1]shot analysis'!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" t="e">
+        <f>'[1]shot analysis'!M53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" t="e">
+        <f>'[1]shot analysis'!N53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" t="e">
+        <f>'[1]shot analysis'!O53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" t="e">
+        <f>'[1]shot analysis'!AA53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" t="e">
+        <f>'[1]shot analysis'!AB53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" t="e">
+        <f>'[1]shot analysis'!AC53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" t="e">
+        <f>'[1]shot analysis'!AD53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" t="e">
+        <f>[1]portcullis!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" t="e">
+        <f>'[1]cheval de frise'!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" t="e">
+        <f>[1]moat!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O53" t="e">
+        <f>[1]ramparts!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P53" t="e">
+        <f>[1]drawbridge!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q53" t="e">
+        <f>'[1]sally port'!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" t="e">
+        <f>'[1]rock wall'!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" t="e">
+        <f>'[1]rough terrain'!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" t="e">
+        <f>[1]lowbar!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V53" t="e">
+        <f>[1]climb!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W53" t="e">
+        <f>[1]rip!L52</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="e">
+        <f>'[1]shot analysis'!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" t="e">
+        <f>'[1]shot analysis'!M54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" t="e">
+        <f>'[1]shot analysis'!N54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" t="e">
+        <f>'[1]shot analysis'!O54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" t="e">
+        <f>'[1]shot analysis'!AA54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" t="e">
+        <f>'[1]shot analysis'!AB54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I54" t="e">
+        <f>'[1]shot analysis'!AC54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J54" t="e">
+        <f>'[1]shot analysis'!AD54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L54" t="e">
+        <f>[1]portcullis!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" t="e">
+        <f>'[1]cheval de frise'!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N54" t="e">
+        <f>[1]moat!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" t="e">
+        <f>[1]ramparts!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54" t="e">
+        <f>[1]drawbridge!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q54" t="e">
+        <f>'[1]sally port'!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" t="e">
+        <f>'[1]rock wall'!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54" t="e">
+        <f>'[1]rough terrain'!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" t="e">
+        <f>[1]lowbar!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V54" t="e">
+        <f>[1]climb!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W54" t="e">
+        <f>[1]rip!L53</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="e">
+        <f>'[1]shot analysis'!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55" t="e">
+        <f>'[1]shot analysis'!M55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" t="e">
+        <f>'[1]shot analysis'!N55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" t="e">
+        <f>'[1]shot analysis'!O55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" t="e">
+        <f>'[1]shot analysis'!AA55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" t="e">
+        <f>'[1]shot analysis'!AB55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" t="e">
+        <f>'[1]shot analysis'!AC55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" t="e">
+        <f>'[1]shot analysis'!AD55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L55" t="e">
+        <f>[1]portcullis!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" t="e">
+        <f>'[1]cheval de frise'!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N55" t="e">
+        <f>[1]moat!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O55" t="e">
+        <f>[1]ramparts!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P55" t="e">
+        <f>[1]drawbridge!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q55" t="e">
+        <f>'[1]sally port'!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R55" t="e">
+        <f>'[1]rock wall'!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S55" t="e">
+        <f>'[1]rough terrain'!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" t="e">
+        <f>[1]lowbar!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V55" t="e">
+        <f>[1]climb!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W55" t="e">
+        <f>[1]rip!L54</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="e">
+        <f>'[1]shot analysis'!L56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C56" t="e">
+        <f>'[1]shot analysis'!M56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" t="e">
+        <f>'[1]shot analysis'!N56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" t="e">
+        <f>'[1]shot analysis'!O56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" t="e">
+        <f>'[1]shot analysis'!AA56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" t="e">
+        <f>'[1]shot analysis'!AB56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" t="e">
+        <f>'[1]shot analysis'!AC56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J56" t="e">
+        <f>'[1]shot analysis'!AD56</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" t="e">
+        <f>[1]portcullis!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" t="e">
+        <f>'[1]cheval de frise'!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" t="e">
+        <f>[1]moat!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" t="e">
+        <f>[1]ramparts!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P56" t="e">
+        <f>[1]drawbridge!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q56" t="e">
+        <f>'[1]sally port'!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" t="e">
+        <f>'[1]rock wall'!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S56" t="e">
+        <f>'[1]rough terrain'!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" t="e">
+        <f>[1]lowbar!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V56" t="e">
+        <f>[1]climb!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W56" t="e">
+        <f>[1]rip!L55</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/readthis.xlsx
+++ b/readthis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="560" windowWidth="25120" windowHeight="14560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5987,9 +5987,10 @@
       <sheetName val="low"/>
       <sheetName val="climb"/>
       <sheetName val="rip"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="L3" t="e">
@@ -5999,10 +6000,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N3">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
           <cell r="O3">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="AA3" t="e">
             <v>#DIV/0!</v>
@@ -6011,10 +6012,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC3">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
           <cell r="AD3">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="4">
@@ -6037,10 +6038,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC4">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="AD4">
-            <v>0</v>
+            <v>0.37796447300922725</v>
           </cell>
         </row>
         <row r="5">
@@ -6051,10 +6052,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N5">
-            <v>0.83333333333333337</v>
+            <v>1.2222222222222223</v>
           </cell>
           <cell r="O5">
-            <v>1.3291601358251257</v>
+            <v>1.4813657362192649</v>
           </cell>
           <cell r="AA5" t="e">
             <v>#DIV/0!</v>
@@ -6077,10 +6078,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N6">
-            <v>0.5</v>
+            <v>0.6</v>
           </cell>
           <cell r="O6">
-            <v>0.57735026918962573</v>
+            <v>0.54772255750516607</v>
           </cell>
           <cell r="AA6" t="e">
             <v>#DIV/0!</v>
@@ -6103,10 +6104,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N7">
-            <v>1.3333333333333333</v>
+            <v>2.5</v>
           </cell>
           <cell r="O7">
-            <v>1.1547005383792517</v>
+            <v>1.6431676725154984</v>
           </cell>
           <cell r="AA7" t="e">
             <v>#DIV/0!</v>
@@ -6115,10 +6116,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC7">
-            <v>0.33333333333333331</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="AD7">
-            <v>0.57735026918962584</v>
+            <v>0.40824829046386302</v>
           </cell>
         </row>
         <row r="8">
@@ -6129,10 +6130,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N8">
-            <v>0.33333333333333331</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="O8">
-            <v>0.57735026918962584</v>
+            <v>0.37796447300922725</v>
           </cell>
           <cell r="AA8" t="e">
             <v>#DIV/0!</v>
@@ -6181,10 +6182,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N10">
-            <v>5.666666666666667</v>
+            <v>6.4</v>
           </cell>
           <cell r="O10">
-            <v>3.0550504633038935</v>
+            <v>2.4083189157584584</v>
           </cell>
           <cell r="AA10" t="e">
             <v>#DIV/0!</v>
@@ -6233,10 +6234,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N12">
-            <v>3.25</v>
+            <v>3.8571428571428572</v>
           </cell>
           <cell r="O12">
-            <v>2.6299556396765835</v>
+            <v>2.3401261667248794</v>
           </cell>
           <cell r="AA12" t="e">
             <v>#DIV/0!</v>
@@ -6245,10 +6246,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC12">
-            <v>0.25</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="AD12">
-            <v>0.5</v>
+            <v>0.37796447300922725</v>
           </cell>
         </row>
         <row r="13">
@@ -6285,10 +6286,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N14">
-            <v>0.33333333333333331</v>
+            <v>0.2</v>
           </cell>
           <cell r="O14">
-            <v>0.57735026918962584</v>
+            <v>0.44721359549995793</v>
           </cell>
           <cell r="AA14" t="e">
             <v>#DIV/0!</v>
@@ -6311,10 +6312,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N15">
-            <v>1.3333333333333333</v>
+            <v>1.4285714285714286</v>
           </cell>
           <cell r="O15">
-            <v>1.1547005383792517</v>
+            <v>0.78679579246944309</v>
           </cell>
           <cell r="AA15" t="e">
             <v>#DIV/0!</v>
@@ -6323,10 +6324,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC15">
-            <v>0.66666666666666663</v>
+            <v>0.42857142857142855</v>
           </cell>
           <cell r="AD15">
-            <v>1.1547005383792517</v>
+            <v>0.7867957924694432</v>
           </cell>
         </row>
         <row r="16">
@@ -6337,10 +6338,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N16">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="O16">
-            <v>0</v>
+            <v>0.4879500364742666</v>
           </cell>
           <cell r="AA16" t="e">
             <v>#DIV/0!</v>
@@ -6349,10 +6350,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC16">
-            <v>1.3333333333333333</v>
+            <v>0.8571428571428571</v>
           </cell>
           <cell r="AD16">
-            <v>1.1547005383792517</v>
+            <v>1.0690449676496976</v>
           </cell>
         </row>
         <row r="17">
@@ -6375,10 +6376,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC17">
-            <v>0.25</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="AD17">
-            <v>0.5</v>
+            <v>0.40824829046386302</v>
           </cell>
         </row>
         <row r="18">
@@ -6401,10 +6402,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC18">
-            <v>0.6</v>
+            <v>0.625</v>
           </cell>
           <cell r="AD18">
-            <v>0.89442719099991586</v>
+            <v>0.91612538131290433</v>
           </cell>
         </row>
         <row r="19">
@@ -6415,10 +6416,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N19">
-            <v>0.25</v>
+            <v>0.1111111111111111</v>
           </cell>
           <cell r="O19">
-            <v>0.5</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="AA19" t="e">
             <v>#DIV/0!</v>
@@ -6427,10 +6428,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC19">
-            <v>0</v>
+            <v>1.3333333333333333</v>
           </cell>
           <cell r="AD19">
-            <v>0</v>
+            <v>1.5811388300841898</v>
           </cell>
         </row>
         <row r="20">
@@ -6453,10 +6454,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC20">
-            <v>0.33333333333333331</v>
+            <v>1.5</v>
           </cell>
           <cell r="AD20">
-            <v>0.57735026918962584</v>
+            <v>1.3784048752090221</v>
           </cell>
         </row>
         <row r="21">
@@ -6467,10 +6468,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N21">
-            <v>2.5</v>
+            <v>2.1666666666666665</v>
           </cell>
           <cell r="O21">
-            <v>0.57735026918962573</v>
+            <v>1.169045194450012</v>
           </cell>
           <cell r="AA21" t="e">
             <v>#DIV/0!</v>
@@ -6493,7 +6494,7 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N22">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
           <cell r="O22">
             <v>0.70710678118654757</v>
@@ -6519,10 +6520,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N23">
-            <v>4.666666666666667</v>
+            <v>5.8</v>
           </cell>
           <cell r="O23">
-            <v>3.0550504633038935</v>
+            <v>2.6832815729997481</v>
           </cell>
           <cell r="AA23" t="e">
             <v>#DIV/0!</v>
@@ -6557,10 +6558,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC24">
-            <v>0.8</v>
+            <v>1.2222222222222223</v>
           </cell>
           <cell r="AD24">
-            <v>1.7888543819998317</v>
+            <v>1.4813657362192649</v>
           </cell>
         </row>
         <row r="25">
@@ -6571,10 +6572,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N25">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="O25">
-            <v>1</v>
+            <v>0.83666002653407556</v>
           </cell>
           <cell r="AA25" t="e">
             <v>#DIV/0!</v>
@@ -6583,10 +6584,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC25">
-            <v>0.66666666666666663</v>
+            <v>0.5</v>
           </cell>
           <cell r="AD25">
-            <v>1.1547005383792517</v>
+            <v>0.83666002653407556</v>
           </cell>
         </row>
         <row r="26">
@@ -6597,10 +6598,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N26">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="O26">
-            <v>0</v>
+            <v>0.37796447300922725</v>
           </cell>
           <cell r="AA26" t="e">
             <v>#DIV/0!</v>
@@ -6609,10 +6610,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC26">
-            <v>0.5</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="AD26">
-            <v>0.57735026918962573</v>
+            <v>0.4879500364742666</v>
           </cell>
         </row>
         <row r="27">
@@ -6635,10 +6636,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC27">
-            <v>0.5</v>
+            <v>1.5</v>
           </cell>
           <cell r="AD27">
-            <v>0.70710678118654757</v>
+            <v>1.8708286933869707</v>
           </cell>
         </row>
         <row r="28">
@@ -6649,10 +6650,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N28">
-            <v>3.6666666666666665</v>
+            <v>5.5</v>
           </cell>
           <cell r="O28">
-            <v>3.0550504633038931</v>
+            <v>2.8809720581775866</v>
           </cell>
           <cell r="AA28" t="e">
             <v>#DIV/0!</v>
@@ -6675,10 +6676,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N29">
-            <v>0.2</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="O29">
-            <v>0.44721359549995793</v>
+            <v>0.4879500364742666</v>
           </cell>
           <cell r="AA29" t="e">
             <v>#DIV/0!</v>
@@ -6713,10 +6714,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC30">
-            <v>1</v>
+            <v>1.2857142857142858</v>
           </cell>
           <cell r="AD30">
-            <v>1</v>
+            <v>0.95118973121134187</v>
           </cell>
         </row>
         <row r="31">
@@ -6727,10 +6728,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N31">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="O31">
-            <v>0</v>
+            <v>0.40824829046386302</v>
           </cell>
           <cell r="AA31" t="e">
             <v>#DIV/0!</v>
@@ -6739,10 +6740,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC31">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="AD31">
-            <v>0</v>
+            <v>0.40824829046386302</v>
           </cell>
         </row>
         <row r="32">
@@ -6765,10 +6766,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC32">
-            <v>1</v>
+            <v>0.6</v>
           </cell>
           <cell r="AD32">
-            <v>1</v>
+            <v>0.89442719099991586</v>
           </cell>
         </row>
         <row r="33">
@@ -6791,10 +6792,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC33">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="AD33">
-            <v>1.4142135623730951</v>
+            <v>0.83666002653407556</v>
           </cell>
         </row>
         <row r="34">
@@ -6817,10 +6818,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC34">
-            <v>0.2</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="AD34">
-            <v>0.44721359549995793</v>
+            <v>0.37796447300922725</v>
           </cell>
         </row>
         <row r="35">
@@ -6843,10 +6844,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC35">
-            <v>0.66666666666666663</v>
+            <v>0.83333333333333337</v>
           </cell>
           <cell r="AD35">
-            <v>0.57735026918962584</v>
+            <v>0.752772652709081</v>
           </cell>
         </row>
         <row r="36">
@@ -6857,10 +6858,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N36">
-            <v>1.3333333333333333</v>
+            <v>1</v>
           </cell>
           <cell r="O36">
-            <v>1.5275252316519468</v>
+            <v>1.2247448713915889</v>
           </cell>
           <cell r="AA36" t="e">
             <v>#DIV/0!</v>
@@ -6895,10 +6896,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC37">
-            <v>0.2</v>
+            <v>0.7142857142857143</v>
           </cell>
           <cell r="AD37">
-            <v>0.44721359549995793</v>
+            <v>1.4960264830861913</v>
           </cell>
         </row>
         <row r="38">
@@ -6924,7 +6925,7 @@
             <v>0.66666666666666663</v>
           </cell>
           <cell r="AD38">
-            <v>0.57735026918962584</v>
+            <v>0.51639777949432231</v>
           </cell>
         </row>
         <row r="39">
@@ -6961,10 +6962,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N40">
-            <v>2.5</v>
+            <v>2.7142857142857144</v>
           </cell>
           <cell r="O40">
-            <v>0.57735026918962573</v>
+            <v>1.1126972805283737</v>
           </cell>
           <cell r="AA40" t="e">
             <v>#DIV/0!</v>
@@ -6999,10 +7000,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC41">
-            <v>2.6666666666666665</v>
+            <v>2.1428571428571428</v>
           </cell>
           <cell r="AD41">
-            <v>1.5275252316519468</v>
+            <v>1.0690449676496974</v>
           </cell>
         </row>
         <row r="42">
@@ -7013,10 +7014,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N42">
-            <v>2.3333333333333335</v>
+            <v>1.1666666666666667</v>
           </cell>
           <cell r="O42">
-            <v>1.1547005383792517</v>
+            <v>1.4719601443879746</v>
           </cell>
           <cell r="AA42" t="e">
             <v>#DIV/0!</v>
@@ -7025,10 +7026,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC42">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AD42">
-            <v>0</v>
+            <v>1.6733200530681511</v>
           </cell>
         </row>
         <row r="43">
@@ -7065,10 +7066,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N44">
-            <v>0.5</v>
+            <v>0.75</v>
           </cell>
           <cell r="O44">
-            <v>0.57735026918962573</v>
+            <v>0.70710678118654757</v>
           </cell>
           <cell r="AA44" t="e">
             <v>#DIV/0!</v>
@@ -7077,10 +7078,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC44">
-            <v>0.25</v>
+            <v>0.375</v>
           </cell>
           <cell r="AD44">
-            <v>0.5</v>
+            <v>0.51754916950676566</v>
           </cell>
         </row>
         <row r="45">
@@ -7091,10 +7092,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N45">
-            <v>0.25</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="O45">
-            <v>0.5</v>
+            <v>0.37796447300922725</v>
           </cell>
           <cell r="AA45" t="e">
             <v>#DIV/0!</v>
@@ -7103,10 +7104,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC45">
-            <v>0.25</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="AD45">
-            <v>0.5</v>
+            <v>0.37796447300922725</v>
           </cell>
         </row>
         <row r="46">
@@ -7129,10 +7130,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC46">
-            <v>0.5</v>
+            <v>0.42857142857142855</v>
           </cell>
           <cell r="AD46">
-            <v>0.57735026918962573</v>
+            <v>0.53452248382484879</v>
           </cell>
         </row>
         <row r="47">
@@ -7158,7 +7159,7 @@
             <v>0.5</v>
           </cell>
           <cell r="AD47">
-            <v>0.70710678118654757</v>
+            <v>0.57735026918962573</v>
           </cell>
         </row>
         <row r="48">
@@ -7181,10 +7182,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC48">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="AD48">
-            <v>0</v>
+            <v>0.75592894601845451</v>
           </cell>
         </row>
         <row r="49">
@@ -7221,10 +7222,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N50">
-            <v>0.5</v>
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="O50">
-            <v>0.70710678118654757</v>
+            <v>0.51639777949432231</v>
           </cell>
           <cell r="AA50" t="e">
             <v>#DIV/0!</v>
@@ -7233,10 +7234,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC50">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="AD50">
-            <v>0</v>
+            <v>0.40824829046386302</v>
           </cell>
         </row>
         <row r="51">
@@ -7259,10 +7260,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC51">
-            <v>0.5</v>
+            <v>0.6</v>
           </cell>
           <cell r="AD51">
-            <v>1</v>
+            <v>0.89442719099991586</v>
           </cell>
         </row>
         <row r="52">
@@ -7273,10 +7274,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N52">
-            <v>0</v>
+            <v>0.125</v>
           </cell>
           <cell r="O52">
-            <v>0</v>
+            <v>0.35355339059327379</v>
           </cell>
           <cell r="AA52" t="e">
             <v>#DIV/0!</v>
@@ -7285,10 +7286,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC52">
-            <v>0</v>
+            <v>0.125</v>
           </cell>
           <cell r="AD52">
-            <v>0</v>
+            <v>0.35355339059327379</v>
           </cell>
         </row>
         <row r="53">
@@ -7311,10 +7312,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC53">
-            <v>1</v>
+            <v>0.8571428571428571</v>
           </cell>
           <cell r="AD53">
-            <v>0.81649658092772603</v>
+            <v>0.69006555934235414</v>
           </cell>
         </row>
         <row r="54">
@@ -7337,10 +7338,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC54">
-            <v>0.66666666666666663</v>
+            <v>0.6</v>
           </cell>
           <cell r="AD54">
-            <v>1.1547005383792517</v>
+            <v>0.89442719099991586</v>
           </cell>
         </row>
         <row r="55">
@@ -7363,10 +7364,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC55">
-            <v>1</v>
+            <v>1.6666666666666667</v>
           </cell>
           <cell r="AD55">
-            <v>1.1547005383792515</v>
+            <v>1.8618986725025255</v>
           </cell>
         </row>
         <row r="56">
@@ -7389,10 +7390,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC56">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="AD56">
-            <v>0</v>
+            <v>0.40824829046386302</v>
           </cell>
         </row>
         <row r="57">
@@ -7429,10 +7430,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N58">
-            <v>0.33333333333333331</v>
+            <v>0.2</v>
           </cell>
           <cell r="O58">
-            <v>0.57735026918962584</v>
+            <v>0.44721359549995793</v>
           </cell>
           <cell r="AA58" t="e">
             <v>#DIV/0!</v>
@@ -7441,10 +7442,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC58">
-            <v>1.6666666666666667</v>
+            <v>1.2</v>
           </cell>
           <cell r="AD58">
-            <v>1.5275252316519465</v>
+            <v>1.3038404810405297</v>
           </cell>
         </row>
         <row r="59">
@@ -7467,10 +7468,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC59">
-            <v>0.66666666666666663</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="AD59">
-            <v>1.1547005383792517</v>
+            <v>0.75592894601845451</v>
           </cell>
         </row>
         <row r="60">
@@ -7496,7 +7497,7 @@
             <v>1</v>
           </cell>
           <cell r="AD60">
-            <v>0.81649658092772603</v>
+            <v>0.57735026918962573</v>
           </cell>
         </row>
         <row r="61">
@@ -7519,10 +7520,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC61">
-            <v>0.33333333333333331</v>
+            <v>1</v>
           </cell>
           <cell r="AD61">
-            <v>0.57735026918962584</v>
+            <v>1.2247448713915889</v>
           </cell>
         </row>
         <row r="62">
@@ -7545,10 +7546,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC62">
-            <v>0</v>
+            <v>0.875</v>
           </cell>
           <cell r="AD62">
-            <v>0</v>
+            <v>1.1259916264596033</v>
           </cell>
         </row>
         <row r="63">
@@ -7571,10 +7572,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC63">
-            <v>1.25</v>
+            <v>1.2</v>
           </cell>
           <cell r="AD63">
-            <v>0.9574271077563381</v>
+            <v>0.83666002653407556</v>
           </cell>
         </row>
         <row r="64">
@@ -7597,10 +7598,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC64">
-            <v>3</v>
+            <v>3.1428571428571428</v>
           </cell>
           <cell r="AD64">
-            <v>1</v>
+            <v>2.1157009420498154</v>
           </cell>
         </row>
         <row r="65">
@@ -7623,10 +7624,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="AC65">
-            <v>2.5</v>
+            <v>2.1428571428571428</v>
           </cell>
           <cell r="AD65">
-            <v>0.57735026918962573</v>
+            <v>1.0690449676496974</v>
           </cell>
         </row>
         <row r="66">
@@ -7637,10 +7638,10 @@
             <v>#DIV/0!</v>
           </cell>
           <cell r="N66">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="O66">
-            <v>0</v>
+            <v>0.37796447300922725</v>
           </cell>
           <cell r="AA66" t="e">
             <v>#DIV/0!</v>
@@ -7682,8 +7683,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="L2" t="e">
@@ -7691,13 +7692,13 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="L3" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L3">
+            <v>1</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="L4" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L4">
+            <v>2</v>
           </cell>
         </row>
         <row r="5">
@@ -7736,8 +7737,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="L12" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L12">
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -7747,7 +7748,7 @@
         </row>
         <row r="14">
           <cell r="L14">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="15">
@@ -7757,22 +7758,22 @@
         </row>
         <row r="16">
           <cell r="L16">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="L17" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L17">
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="L18" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L18">
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="L19" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L19">
+            <v>0</v>
           </cell>
         </row>
         <row r="20">
@@ -7781,8 +7782,8 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="L21" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L21">
+            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -7796,18 +7797,18 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="L24" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L24">
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="L25" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L25">
+            <v>2</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="L26" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L26">
+            <v>0</v>
           </cell>
         </row>
         <row r="27">
@@ -7816,13 +7817,13 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="L28" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L28">
+            <v>0</v>
           </cell>
         </row>
         <row r="29">
           <cell r="L29">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="30">
@@ -7836,18 +7837,18 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="L32" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L32">
+            <v>0</v>
           </cell>
         </row>
         <row r="33">
           <cell r="L33">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="L34" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L34">
+            <v>0</v>
           </cell>
         </row>
         <row r="35">
@@ -7861,8 +7862,8 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="L37" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L37">
+            <v>0</v>
           </cell>
         </row>
         <row r="38">
@@ -7871,18 +7872,18 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="L39" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L39">
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="L40" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L40">
+            <v>2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="L41">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="42">
@@ -7896,8 +7897,8 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="L44" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L44">
+            <v>0</v>
           </cell>
         </row>
         <row r="45">
@@ -7921,8 +7922,8 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="L49" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L49">
+            <v>0</v>
           </cell>
         </row>
         <row r="50">
@@ -7931,13 +7932,13 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="L51" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L51">
+            <v>0</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="L52" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L52">
+            <v>0</v>
           </cell>
         </row>
         <row r="53">
@@ -7951,28 +7952,28 @@
           </cell>
         </row>
         <row r="55">
-          <cell r="L55" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L55">
+            <v>0</v>
           </cell>
         </row>
         <row r="56">
-          <cell r="L56" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L56">
+            <v>0</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="L57" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L57">
+            <v>0</v>
           </cell>
         </row>
         <row r="58">
-          <cell r="L58" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L58">
+            <v>2</v>
           </cell>
         </row>
         <row r="59">
-          <cell r="L59" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L59">
+            <v>0</v>
           </cell>
         </row>
         <row r="60">
@@ -7991,13 +7992,13 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="L63" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L63">
+            <v>0</v>
           </cell>
         </row>
         <row r="64">
-          <cell r="L64" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L64">
+            <v>0</v>
           </cell>
         </row>
         <row r="65">
@@ -8014,12 +8015,12 @@
       <sheetData sheetId="5">
         <row r="2">
           <cell r="L2">
-            <v>0</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="3">
           <cell r="L3">
-            <v>1.5</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="4">
@@ -8029,12 +8030,12 @@
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1.6666666666666667</v>
+            <v>1.25</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
         </row>
         <row r="7">
@@ -8059,22 +8060,22 @@
         </row>
         <row r="11">
           <cell r="L11">
-            <v>1.3333333333333333</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="12">
           <cell r="L12">
-            <v>0.33333333333333331</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="L13">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="14">
           <cell r="L14">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="15">
@@ -8084,7 +8085,7 @@
         </row>
         <row r="16">
           <cell r="L16">
-            <v>0.33333333333333331</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="17">
@@ -8099,7 +8100,7 @@
         </row>
         <row r="19">
           <cell r="L19">
-            <v>0.66666666666666663</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="20">
@@ -8119,7 +8120,7 @@
         </row>
         <row r="23">
           <cell r="L23">
-            <v>0.8</v>
+            <v>1.2222222222222223</v>
           </cell>
         </row>
         <row r="24">
@@ -8129,7 +8130,7 @@
         </row>
         <row r="25">
           <cell r="L25">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="26">
@@ -8139,7 +8140,7 @@
         </row>
         <row r="27">
           <cell r="L27">
-            <v>2</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="28">
@@ -8149,12 +8150,12 @@
         </row>
         <row r="29">
           <cell r="L29">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="30">
           <cell r="L30">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="31">
@@ -8164,12 +8165,12 @@
         </row>
         <row r="32">
           <cell r="L32">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="33">
           <cell r="L33">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="34">
@@ -8179,7 +8180,7 @@
         </row>
         <row r="35">
           <cell r="L35">
-            <v>0.33333333333333331</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="36">
@@ -8199,7 +8200,7 @@
         </row>
         <row r="39">
           <cell r="L39">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="40">
@@ -8209,7 +8210,7 @@
         </row>
         <row r="41">
           <cell r="L41">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="42">
@@ -8224,7 +8225,7 @@
         </row>
         <row r="44">
           <cell r="L44">
-            <v>0.5</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="45">
@@ -8244,7 +8245,7 @@
         </row>
         <row r="48">
           <cell r="L48">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="49">
@@ -8259,7 +8260,7 @@
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0.4</v>
+            <v>0.8571428571428571</v>
           </cell>
         </row>
         <row r="52">
@@ -8274,17 +8275,17 @@
         </row>
         <row r="54">
           <cell r="L54">
-            <v>0.75</v>
+            <v>0.83333333333333337</v>
           </cell>
         </row>
         <row r="55">
           <cell r="L55">
-            <v>0.5</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="56">
           <cell r="L56">
-            <v>0.25</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="57">
@@ -8294,7 +8295,7 @@
         </row>
         <row r="58">
           <cell r="L58">
-            <v>1.3333333333333333</v>
+            <v>1.2</v>
           </cell>
         </row>
         <row r="59">
@@ -8304,32 +8305,32 @@
         </row>
         <row r="60">
           <cell r="L60">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="61">
           <cell r="L61">
-            <v>0</v>
+            <v>0.375</v>
           </cell>
         </row>
         <row r="62">
           <cell r="L62">
-            <v>1.6666666666666667</v>
+            <v>1.75</v>
           </cell>
         </row>
         <row r="63">
           <cell r="L63">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="64">
           <cell r="L64">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="65">
           <cell r="L65">
-            <v>0.66666666666666663</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="66">
@@ -8371,7 +8372,7 @@
         </row>
         <row r="8">
           <cell r="L8">
-            <v>0.33333333333333331</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="9">
@@ -8386,7 +8387,7 @@
         </row>
         <row r="11">
           <cell r="L11">
-            <v>0</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="12">
@@ -8400,8 +8401,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="L14" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L14">
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
@@ -8411,12 +8412,12 @@
         </row>
         <row r="16">
           <cell r="L16">
-            <v>0.75</v>
+            <v>1.1666666666666667</v>
           </cell>
         </row>
         <row r="17">
           <cell r="L17">
-            <v>1.25</v>
+            <v>0.83333333333333337</v>
           </cell>
         </row>
         <row r="18">
@@ -8426,17 +8427,17 @@
         </row>
         <row r="19">
           <cell r="L19">
-            <v>0.5</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="20">
           <cell r="L20">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="L21" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L21">
+            <v>1.5</v>
           </cell>
         </row>
         <row r="22">
@@ -8446,12 +8447,12 @@
         </row>
         <row r="23">
           <cell r="L23">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="24">
           <cell r="L24">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="25">
@@ -8460,8 +8461,8 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="L26" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L26">
+            <v>2</v>
           </cell>
         </row>
         <row r="27">
@@ -8476,7 +8477,7 @@
         </row>
         <row r="29">
           <cell r="L29">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="30">
@@ -8491,7 +8492,7 @@
         </row>
         <row r="32">
           <cell r="L32">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="33">
@@ -8516,12 +8517,12 @@
         </row>
         <row r="37">
           <cell r="L37">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="38">
           <cell r="L38">
-            <v>1.5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="39">
@@ -8551,12 +8552,12 @@
         </row>
         <row r="44">
           <cell r="L44">
-            <v>1.5</v>
+            <v>1.75</v>
           </cell>
         </row>
         <row r="45">
           <cell r="L45">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="46">
@@ -8566,17 +8567,17 @@
         </row>
         <row r="47">
           <cell r="L47">
-            <v>1</v>
+            <v>0.6</v>
           </cell>
         </row>
         <row r="48">
           <cell r="L48">
-            <v>0.5</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="L49" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L49">
+            <v>1</v>
           </cell>
         </row>
         <row r="50">
@@ -8586,12 +8587,12 @@
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="L52" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L52">
+            <v>0</v>
           </cell>
         </row>
         <row r="53">
@@ -8606,7 +8607,7 @@
         </row>
         <row r="55">
           <cell r="L55">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="56">
@@ -8621,12 +8622,12 @@
         </row>
         <row r="58">
           <cell r="L58">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="59">
           <cell r="L59">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="60">
@@ -8636,7 +8637,7 @@
         </row>
         <row r="61">
           <cell r="L61">
-            <v>1.5</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="62">
@@ -8656,7 +8657,7 @@
         </row>
         <row r="65">
           <cell r="L65">
-            <v>2</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="66">
@@ -8673,22 +8674,22 @@
         </row>
         <row r="3">
           <cell r="L3">
-            <v>1.5</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="4">
           <cell r="L4">
-            <v>2</v>
+            <v>1.4285714285714286</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>0.33333333333333331</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>1</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="7">
@@ -8698,12 +8699,12 @@
         </row>
         <row r="8">
           <cell r="L8">
-            <v>2</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="9">
           <cell r="L9">
-            <v>2</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="10">
@@ -8718,17 +8719,17 @@
         </row>
         <row r="12">
           <cell r="L12">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="13">
           <cell r="L13">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="14">
           <cell r="L14">
-            <v>0.33333333333333331</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="15">
@@ -8748,7 +8749,7 @@
         </row>
         <row r="18">
           <cell r="L18">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="19">
@@ -8758,22 +8759,22 @@
         </row>
         <row r="20">
           <cell r="L20">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="21">
           <cell r="L21">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="22">
           <cell r="L22">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="L23">
-            <v>1.5</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="24">
@@ -8788,22 +8789,22 @@
         </row>
         <row r="26">
           <cell r="L26">
-            <v>2</v>
+            <v>1.6</v>
           </cell>
         </row>
         <row r="27">
           <cell r="L27">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="28">
           <cell r="L28">
-            <v>1.3333333333333333</v>
+            <v>1.4</v>
           </cell>
         </row>
         <row r="29">
           <cell r="L29">
-            <v>0.5</v>
+            <v>1.25</v>
           </cell>
         </row>
         <row r="30">
@@ -8813,12 +8814,12 @@
         </row>
         <row r="31">
           <cell r="L31">
-            <v>1.5</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="L32" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L32">
+            <v>2</v>
           </cell>
         </row>
         <row r="33">
@@ -8828,7 +8829,7 @@
         </row>
         <row r="34">
           <cell r="L34">
-            <v>2</v>
+            <v>1.25</v>
           </cell>
         </row>
         <row r="35">
@@ -8843,27 +8844,27 @@
         </row>
         <row r="37">
           <cell r="L37">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="38">
           <cell r="L38">
-            <v>2</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="L39" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L39">
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
           <cell r="L40">
-            <v>2</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="41">
           <cell r="L41">
-            <v>1</v>
+            <v>1.75</v>
           </cell>
         </row>
         <row r="42">
@@ -8873,42 +8874,42 @@
         </row>
         <row r="43">
           <cell r="L43">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="44">
           <cell r="L44">
-            <v>1</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="45">
           <cell r="L45">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="46">
           <cell r="L46">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="47">
           <cell r="L47">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="48">
           <cell r="L48">
-            <v>2</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="49">
           <cell r="L49">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="50">
           <cell r="L50">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="51">
@@ -8918,17 +8919,17 @@
         </row>
         <row r="52">
           <cell r="L52">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="53">
           <cell r="L53">
-            <v>0</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="54">
           <cell r="L54">
-            <v>1</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="55">
@@ -8943,12 +8944,12 @@
         </row>
         <row r="57">
           <cell r="L57">
-            <v>1</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="58">
           <cell r="L58">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="59">
@@ -8958,12 +8959,12 @@
         </row>
         <row r="60">
           <cell r="L60">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="61">
           <cell r="L61">
-            <v>2</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="62">
@@ -8973,7 +8974,7 @@
         </row>
         <row r="63">
           <cell r="L63">
-            <v>2</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="64">
@@ -8988,14 +8989,14 @@
         </row>
         <row r="66">
           <cell r="L66">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="L2">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="3">
@@ -9004,8 +9005,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="L4" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L4">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
@@ -9014,23 +9015,23 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="L6" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="L7" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L7">
+            <v>0</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="L8" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L8">
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="L9" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L9">
+            <v>2</v>
           </cell>
         </row>
         <row r="10">
@@ -9040,22 +9041,22 @@
         </row>
         <row r="11">
           <cell r="L11">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="L12" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L12">
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="L13" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L13">
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="L14" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L14">
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
@@ -9084,8 +9085,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="L20" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L20">
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
@@ -9099,13 +9100,13 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="L23" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L23">
+            <v>0</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="L24" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L24">
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
@@ -9114,8 +9115,8 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="L26" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L26">
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="27">
@@ -9130,7 +9131,7 @@
         </row>
         <row r="29">
           <cell r="L29">
-            <v>2</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="30">
@@ -9140,12 +9141,12 @@
         </row>
         <row r="31">
           <cell r="L31">
-            <v>0.5</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="32">
           <cell r="L32">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="33">
@@ -9159,13 +9160,13 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="L35" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L35">
+            <v>0</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="L36" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L36">
+            <v>0</v>
           </cell>
         </row>
         <row r="37">
@@ -9179,18 +9180,18 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="L39" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L39">
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="L40" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L40">
+            <v>0</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="L41" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L41">
+            <v>0</v>
           </cell>
         </row>
         <row r="42">
@@ -9199,8 +9200,8 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="L43" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L43">
+            <v>1</v>
           </cell>
         </row>
         <row r="44">
@@ -9219,8 +9220,8 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="L47" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L47">
+            <v>0</v>
           </cell>
         </row>
         <row r="48">
@@ -9244,8 +9245,8 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="L52" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L52">
+            <v>0</v>
           </cell>
         </row>
         <row r="53">
@@ -9254,13 +9255,13 @@
           </cell>
         </row>
         <row r="54">
-          <cell r="L54" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L54">
+            <v>0</v>
           </cell>
         </row>
         <row r="55">
-          <cell r="L55" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L55">
+            <v>0</v>
           </cell>
         </row>
         <row r="56">
@@ -9274,8 +9275,8 @@
           </cell>
         </row>
         <row r="58">
-          <cell r="L58" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L58">
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="59">
@@ -9289,13 +9290,13 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="L61" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L61">
+            <v>0</v>
           </cell>
         </row>
         <row r="62">
-          <cell r="L62" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L62">
+            <v>0</v>
           </cell>
         </row>
         <row r="63">
@@ -9304,18 +9305,18 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="L64" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L64">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="L65" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L65">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="66">
-          <cell r="L66" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L66">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -9342,7 +9343,7 @@
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0.66666666666666663</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="7">
@@ -9362,22 +9363,22 @@
         </row>
         <row r="10">
           <cell r="L10">
-            <v>0.66666666666666663</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="L11">
-            <v>0.66666666666666663</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="12">
           <cell r="L12">
-            <v>0</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="L13">
-            <v>0.66666666666666663</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="14">
@@ -9392,7 +9393,7 @@
         </row>
         <row r="16">
           <cell r="L16">
-            <v>0.75</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="17">
@@ -9422,22 +9423,22 @@
         </row>
         <row r="22">
           <cell r="L22">
-            <v>1</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="23">
           <cell r="L23">
-            <v>0.8</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="24">
           <cell r="L24">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="25">
           <cell r="L25">
-            <v>0.33333333333333331</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="26">
@@ -9447,12 +9448,12 @@
         </row>
         <row r="27">
           <cell r="L27">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="28">
           <cell r="L28">
-            <v>0.5</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="29">
@@ -9487,7 +9488,7 @@
         </row>
         <row r="35">
           <cell r="L35">
-            <v>0.33333333333333331</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="36">
@@ -9497,7 +9498,7 @@
         </row>
         <row r="37">
           <cell r="L37">
-            <v>0</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="38">
@@ -9527,12 +9528,12 @@
         </row>
         <row r="43">
           <cell r="L43">
-            <v>0.25</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="44">
           <cell r="L44">
-            <v>0.66666666666666663</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="45">
@@ -9557,7 +9558,7 @@
         </row>
         <row r="49">
           <cell r="L49">
-            <v>0.5</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="50">
@@ -9567,27 +9568,27 @@
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="52">
           <cell r="L52">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="53">
           <cell r="L53">
-            <v>0</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="54">
           <cell r="L54">
-            <v>0.25</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="L55">
-            <v>0.5</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="56">
@@ -9597,12 +9598,12 @@
         </row>
         <row r="57">
           <cell r="L57">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="58">
           <cell r="L58">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="59">
@@ -9612,12 +9613,12 @@
         </row>
         <row r="60">
           <cell r="L60">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="61">
           <cell r="L61">
-            <v>0.25</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="62">
@@ -9627,22 +9628,22 @@
         </row>
         <row r="63">
           <cell r="L63">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="64">
           <cell r="L64">
-            <v>0.5</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="65">
           <cell r="L65">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="66">
           <cell r="L66">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
       </sheetData>
@@ -9654,27 +9655,27 @@
         </row>
         <row r="3">
           <cell r="L3">
-            <v>1.5</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="4">
           <cell r="L4">
-            <v>0.4</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>1.5</v>
+            <v>1.6</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0.66666666666666663</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
         </row>
         <row r="8">
@@ -9684,12 +9685,12 @@
         </row>
         <row r="9">
           <cell r="L9">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="10">
           <cell r="L10">
-            <v>0.66666666666666663</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="11">
@@ -9704,7 +9705,7 @@
         </row>
         <row r="13">
           <cell r="L13">
-            <v>1</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="14">
@@ -9714,7 +9715,334 @@
         </row>
         <row r="15">
           <cell r="L15">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="L16">
+            <v>1.25</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="L17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="L18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="L19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="L20">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="L21">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="L22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="L23">
+            <v>1.2857142857142858</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="L24">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="L25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="L26">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="L27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="L28">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="L29">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="L30">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="L31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="L32">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="L33">
+            <v>1.1666666666666667</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="L34">
             <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="L35">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="L36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="L37">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="L38">
+            <v>1.6</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="L39">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="L40">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="L41">
+            <v>1.6</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="L42" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="L43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="L44">
+            <v>1.6</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="L45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="L46">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="L47">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="L48">
+            <v>1.4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="L49">
+            <v>1.2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="L50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="L51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="L52">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="L53">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="L54">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="L55">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="L56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="L57">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="L58">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="L59">
+            <v>1.6666666666666667</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="L60">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="L61">
+            <v>1.3333333333333333</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="L62">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="L63">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="L64">
+            <v>1.6</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="L65">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="L66">
+            <v>0.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="L3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="L10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="L11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="L12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="L13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="L14">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="L15">
+            <v>0</v>
           </cell>
         </row>
         <row r="16">
@@ -9724,22 +10052,22 @@
         </row>
         <row r="17">
           <cell r="L17">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="18">
           <cell r="L18">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="19">
           <cell r="L19">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="20">
           <cell r="L20">
-            <v>0.66666666666666663</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
@@ -9749,67 +10077,67 @@
         </row>
         <row r="22">
           <cell r="L22">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="23">
           <cell r="L23">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="24">
           <cell r="L24">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="25">
           <cell r="L25">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="26">
           <cell r="L26">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="27">
           <cell r="L27">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="L28">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="L29">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="L30">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="31">
           <cell r="L31">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="L32" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L32">
+            <v>0</v>
           </cell>
         </row>
         <row r="33">
           <cell r="L33">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="L34">
-            <v>0.33333333333333331</v>
+          <cell r="L34" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="35">
@@ -9819,32 +10147,32 @@
         </row>
         <row r="36">
           <cell r="L36">
-            <v>0</v>
+            <v>1.3333333333333333</v>
           </cell>
         </row>
         <row r="37">
           <cell r="L37">
-            <v>0.5</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="38">
           <cell r="L38">
-            <v>1.3333333333333333</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="39">
           <cell r="L39">
-            <v>0.66666666666666663</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
           <cell r="L40">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="41">
           <cell r="L41">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="42">
@@ -9854,37 +10182,37 @@
         </row>
         <row r="43">
           <cell r="L43">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="44">
           <cell r="L44">
-            <v>1.3333333333333333</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="45">
           <cell r="L45">
-            <v>2</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="46">
           <cell r="L46">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="47">
           <cell r="L47">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="48">
           <cell r="L48">
-            <v>1</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="49">
           <cell r="L49">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="50">
@@ -9894,22 +10222,22 @@
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="52">
           <cell r="L52">
-            <v>0.33333333333333331</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="53">
           <cell r="L53">
-            <v>1</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="54">
           <cell r="L54">
-            <v>0.66666666666666663</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="55">
@@ -9939,364 +10267,37 @@
         </row>
         <row r="60">
           <cell r="L60">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="61">
           <cell r="L61">
-            <v>1.3333333333333333</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="62">
           <cell r="L62">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="63">
           <cell r="L63">
-            <v>1.3333333333333333</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="64">
           <cell r="L64">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="65">
           <cell r="L65">
-            <v>0.66666666666666663</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="66">
           <cell r="L66">
             <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="2">
-          <cell r="L2" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="L3" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="L4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="L7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="L14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="L15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="L16">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="L17">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="L18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="L19" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="L20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="L21" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="L22">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="L23">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="L24" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="L25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="L26">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="L27">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="L28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>0.66666666666666663</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="L35">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="L36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="L37">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="L38" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="L39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="L40" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="L41">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="L42" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="L43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="L44">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="L45">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="L46" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="L47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="L48">
-            <v>0.33333333333333331</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="L49" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="L50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="L51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="L52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="L53">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="L54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="L55" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="L56">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="L57">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="L58" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="L59" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="L60">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="L61">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="L62">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="L63" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="L64">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="L65">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="L66">
-            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -10308,17 +10309,17 @@
         </row>
         <row r="3">
           <cell r="L3">
-            <v>1</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="4">
           <cell r="L4">
-            <v>0.33333333333333331</v>
+            <v>0.88888888888888884</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>0.5</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="6">
@@ -10333,12 +10334,12 @@
         </row>
         <row r="8">
           <cell r="L8">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="9">
           <cell r="L9">
-            <v>1.3333333333333333</v>
+            <v>1.6</v>
           </cell>
         </row>
         <row r="10">
@@ -10358,12 +10359,12 @@
         </row>
         <row r="13">
           <cell r="L13">
-            <v>0.66666666666666663</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="14">
           <cell r="L14">
-            <v>2</v>
+            <v>1.7142857142857142</v>
           </cell>
         </row>
         <row r="15">
@@ -10373,32 +10374,32 @@
         </row>
         <row r="16">
           <cell r="L16">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="17">
           <cell r="L17">
-            <v>0.4</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="18">
           <cell r="L18">
-            <v>1</v>
+            <v>0.44444444444444442</v>
           </cell>
         </row>
         <row r="19">
           <cell r="L19">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="20">
           <cell r="L20">
-            <v>2</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="21">
           <cell r="L21">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="22">
@@ -10408,17 +10409,17 @@
         </row>
         <row r="23">
           <cell r="L23">
-            <v>0</v>
+            <v>0.22222222222222221</v>
           </cell>
         </row>
         <row r="24">
           <cell r="L24">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="25">
           <cell r="L25">
-            <v>1.5</v>
+            <v>1.4285714285714286</v>
           </cell>
         </row>
         <row r="26">
@@ -10433,32 +10434,32 @@
         </row>
         <row r="28">
           <cell r="L28">
-            <v>0.4</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="29">
           <cell r="L29">
-            <v>0.66666666666666663</v>
+            <v>1.1428571428571428</v>
           </cell>
         </row>
         <row r="30">
           <cell r="L30">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="31">
           <cell r="L31">
-            <v>1.3333333333333333</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="32">
           <cell r="L32">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="33">
           <cell r="L33">
-            <v>0.4</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="34">
@@ -10478,12 +10479,12 @@
         </row>
         <row r="37">
           <cell r="L37">
-            <v>1.3333333333333333</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="38">
           <cell r="L38">
-            <v>0.66666666666666663</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="39">
@@ -10493,12 +10494,12 @@
         </row>
         <row r="40">
           <cell r="L40">
-            <v>1.3333333333333333</v>
+            <v>1.4285714285714286</v>
           </cell>
         </row>
         <row r="41">
           <cell r="L41">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="42">
@@ -10508,12 +10509,12 @@
         </row>
         <row r="43">
           <cell r="L43">
-            <v>1</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="44">
           <cell r="L44">
-            <v>1</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="45">
@@ -10523,7 +10524,7 @@
         </row>
         <row r="46">
           <cell r="L46">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="47">
@@ -10533,12 +10534,12 @@
         </row>
         <row r="48">
           <cell r="L48">
-            <v>0.4</v>
+            <v>0.22222222222222221</v>
           </cell>
         </row>
         <row r="49">
           <cell r="L49">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="50">
@@ -10548,22 +10549,22 @@
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0.4</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="52">
           <cell r="L52">
-            <v>1.5</v>
+            <v>0.8571428571428571</v>
           </cell>
         </row>
         <row r="53">
           <cell r="L53">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="54">
           <cell r="L54">
-            <v>1.5</v>
+            <v>1.6666666666666667</v>
           </cell>
         </row>
         <row r="55">
@@ -10583,22 +10584,22 @@
         </row>
         <row r="58">
           <cell r="L58">
-            <v>0.66666666666666663</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="59">
           <cell r="L59">
-            <v>1.5</v>
+            <v>0.8571428571428571</v>
           </cell>
         </row>
         <row r="60">
           <cell r="L60">
-            <v>0.66666666666666663</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="61">
           <cell r="L61">
-            <v>0.5</v>
+            <v>0.75</v>
           </cell>
         </row>
         <row r="62">
@@ -10608,27 +10609,27 @@
         </row>
         <row r="63">
           <cell r="L63">
-            <v>2</v>
+            <v>1.4285714285714286</v>
           </cell>
         </row>
         <row r="64">
           <cell r="L64">
-            <v>1</v>
+            <v>1.4285714285714286</v>
           </cell>
         </row>
         <row r="65">
           <cell r="L65">
-            <v>1.5</v>
+            <v>1.1428571428571428</v>
           </cell>
         </row>
         <row r="66">
           <cell r="L66">
-            <v>1.3333333333333333</v>
+            <v>0.8571428571428571</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="L2">
@@ -10637,7 +10638,7 @@
         </row>
         <row r="3">
           <cell r="L3">
-            <v>0</v>
+            <v>0.42857142857142855</v>
           </cell>
         </row>
         <row r="4">
@@ -10646,8 +10647,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="L5" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -10667,17 +10668,17 @@
         </row>
         <row r="9">
           <cell r="L9">
-            <v>0</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="L10">
-            <v>2</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="11">
           <cell r="L11">
-            <v>0</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="12">
@@ -10687,12 +10688,12 @@
         </row>
         <row r="13">
           <cell r="L13">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="14">
           <cell r="L14">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="15">
@@ -10706,8 +10707,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="L17" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L17">
+            <v>0.25</v>
           </cell>
         </row>
         <row r="18">
@@ -10727,12 +10728,12 @@
         </row>
         <row r="21">
           <cell r="L21">
-            <v>0</v>
+            <v>0.8</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="L22" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L22">
+            <v>0.4</v>
           </cell>
         </row>
         <row r="23">
@@ -10742,7 +10743,7 @@
         </row>
         <row r="24">
           <cell r="L24">
-            <v>1</v>
+            <v>0.83333333333333337</v>
           </cell>
         </row>
         <row r="25">
@@ -10752,12 +10753,12 @@
         </row>
         <row r="26">
           <cell r="L26">
-            <v>0</v>
+            <v>0.83333333333333337</v>
           </cell>
         </row>
         <row r="27">
           <cell r="L27">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="28">
@@ -10772,17 +10773,17 @@
         </row>
         <row r="30">
           <cell r="L30">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="31">
           <cell r="L31">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="L32" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L32">
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="33">
@@ -10792,17 +10793,17 @@
         </row>
         <row r="34">
           <cell r="L34">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="35">
           <cell r="L35">
-            <v>0</v>
+            <v>0.6</v>
           </cell>
         </row>
         <row r="36">
           <cell r="L36">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="37">
@@ -10816,13 +10817,13 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="L39" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L39">
+            <v>0</v>
           </cell>
         </row>
         <row r="40">
           <cell r="L40">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="41">
@@ -10857,7 +10858,7 @@
         </row>
         <row r="47">
           <cell r="L47">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="48">
@@ -10877,7 +10878,7 @@
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="52">
@@ -10912,7 +10913,7 @@
         </row>
         <row r="58">
           <cell r="L58">
-            <v>0</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="59">
@@ -10959,37 +10960,37 @@
       <sheetData sheetId="16">
         <row r="2">
           <cell r="L2">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="L3">
-            <v>1</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="4">
           <cell r="L4">
-            <v>1</v>
+            <v>0.77777777777777779</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L5">
+            <v>0.2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>1</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="7">
           <cell r="L7">
-            <v>1</v>
+            <v>0.7142857142857143</v>
           </cell>
         </row>
         <row r="8">
           <cell r="L8">
-            <v>1</v>
+            <v>0.7142857142857143</v>
           </cell>
         </row>
         <row r="9">
@@ -10999,7 +11000,7 @@
         </row>
         <row r="10">
           <cell r="L10">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="11">
@@ -11009,7 +11010,7 @@
         </row>
         <row r="12">
           <cell r="L12">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="13">
@@ -11033,18 +11034,18 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="L17" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L17">
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
           <cell r="L18">
-            <v>1</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="19">
           <cell r="L19">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="20">
@@ -11054,27 +11055,27 @@
         </row>
         <row r="21">
           <cell r="L21">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="L22" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L22">
+            <v>0</v>
           </cell>
         </row>
         <row r="23">
           <cell r="L23">
-            <v>1</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="24">
           <cell r="L24">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="25">
           <cell r="L25">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="26">
@@ -11089,7 +11090,7 @@
         </row>
         <row r="28">
           <cell r="L28">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="29">
@@ -11099,27 +11100,27 @@
         </row>
         <row r="30">
           <cell r="L30">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
         </row>
         <row r="31">
           <cell r="L31">
-            <v>0</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="L32" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L32">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="33">
           <cell r="L33">
-            <v>1</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="34">
           <cell r="L34">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="35">
@@ -11129,27 +11130,27 @@
         </row>
         <row r="36">
           <cell r="L36">
-            <v>0</v>
+            <v>0.42857142857142855</v>
           </cell>
         </row>
         <row r="37">
           <cell r="L37">
-            <v>1</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="38">
           <cell r="L38">
-            <v>1</v>
+            <v>0.5714285714285714</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="L39" t="e">
-            <v>#DIV/0!</v>
+          <cell r="L39">
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="40">
           <cell r="L40">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="41">
@@ -11164,87 +11165,87 @@
         </row>
         <row r="43">
           <cell r="L43">
-            <v>0</v>
+            <v>0.375</v>
           </cell>
         </row>
         <row r="44">
           <cell r="L44">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="45">
           <cell r="L45">
-            <v>0</v>
+            <v>0.42857142857142855</v>
           </cell>
         </row>
         <row r="46">
           <cell r="L46">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="47">
           <cell r="L47">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="48">
           <cell r="L48">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="49">
           <cell r="L49">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
         </row>
         <row r="50">
           <cell r="L50">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="51">
           <cell r="L51">
-            <v>0</v>
+            <v>0.125</v>
           </cell>
         </row>
         <row r="52">
           <cell r="L52">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="53">
           <cell r="L53">
-            <v>1</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="54">
           <cell r="L54">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="55">
           <cell r="L55">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
         </row>
         <row r="56">
           <cell r="L56">
-            <v>1</v>
+            <v>0.8571428571428571</v>
           </cell>
         </row>
         <row r="57">
           <cell r="L57">
-            <v>0</v>
+            <v>0.2</v>
           </cell>
         </row>
         <row r="58">
           <cell r="L58">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="59">
           <cell r="L59">
-            <v>1</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
         <row r="60">
@@ -11254,7 +11255,7 @@
         </row>
         <row r="61">
           <cell r="L61">
-            <v>0</v>
+            <v>0.25</v>
           </cell>
         </row>
         <row r="62">
@@ -11269,20 +11270,21 @@
         </row>
         <row r="64">
           <cell r="L64">
-            <v>1</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="65">
           <cell r="L65">
-            <v>1</v>
+            <v>0.14285714285714285</v>
           </cell>
         </row>
         <row r="66">
           <cell r="L66">
-            <v>0</v>
+            <v>0.2857142857142857</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -19980,7 +19982,10 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20088,11 +20093,11 @@
       </c>
       <c r="D3">
         <f>'[2]shot analysis'!N3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
         <f>'[2]shot analysis'!O3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="e">
         <f>'[2]shot analysis'!AA3</f>
@@ -20104,11 +20109,11 @@
       </c>
       <c r="I3">
         <f>'[2]shot analysis'!AC3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
         <f>'[2]shot analysis'!AD3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="e">
         <f>[2]portcullis!L2</f>
@@ -20116,7 +20121,7 @@
       </c>
       <c r="M3">
         <f>'[2]cheval de frise'!L2</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N3">
         <f>[2]moat!L2</f>
@@ -20128,7 +20133,7 @@
       </c>
       <c r="P3">
         <f>[2]drawbridge!L2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <f>'[2]sally port'!L2</f>
@@ -20138,9 +20143,9 @@
         <f>'[2]rock wall'!L2</f>
         <v>0</v>
       </c>
-      <c r="S3" t="e">
+      <c r="S3">
         <f>'[2]rough terrain'!L2</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f>[2]lowbar!L2</f>
@@ -20152,7 +20157,7 @@
       </c>
       <c r="W3">
         <f>[2]rip!L2</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -20185,19 +20190,19 @@
       </c>
       <c r="I4">
         <f>'[2]shot analysis'!AC4</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J4">
         <f>'[2]shot analysis'!AD4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" t="e">
+        <v>0.37796447300922725</v>
+      </c>
+      <c r="L4">
         <f>[2]portcullis!L3</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f>'[2]cheval de frise'!L3</f>
-        <v>1.5</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N4">
         <f>[2]moat!L3</f>
@@ -20205,7 +20210,7 @@
       </c>
       <c r="O4">
         <f>[2]ramparts!L3</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="P4">
         <f>[2]drawbridge!L3</f>
@@ -20217,23 +20222,23 @@
       </c>
       <c r="R4">
         <f>'[2]rock wall'!L3</f>
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="e">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S4">
         <f>'[2]rough terrain'!L3</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <f>[2]lowbar!L3</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V4">
         <f>[2]climb!L3</f>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="W4">
         <f>[2]rip!L3</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -20250,11 +20255,11 @@
       </c>
       <c r="D5">
         <f>'[2]shot analysis'!N5</f>
-        <v>0.83333333333333337</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="E5">
         <f>'[2]shot analysis'!O5</f>
-        <v>1.3291601358251257</v>
+        <v>1.4813657362192649</v>
       </c>
       <c r="G5" t="e">
         <f>'[2]shot analysis'!AA5</f>
@@ -20272,9 +20277,9 @@
         <f>'[2]shot analysis'!AD5</f>
         <v>0</v>
       </c>
-      <c r="L5" t="e">
+      <c r="L5">
         <f>[2]portcullis!L4</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <f>'[2]cheval de frise'!L4</f>
@@ -20286,11 +20291,11 @@
       </c>
       <c r="O5">
         <f>[2]ramparts!L4</f>
-        <v>2</v>
-      </c>
-      <c r="P5" t="e">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="P5">
         <f>[2]drawbridge!L4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f>'[2]sally port'!L4</f>
@@ -20298,7 +20303,7 @@
       </c>
       <c r="R5">
         <f>'[2]rock wall'!L4</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="S5">
         <f>'[2]rough terrain'!L4</f>
@@ -20306,7 +20311,7 @@
       </c>
       <c r="T5">
         <f>[2]lowbar!L4</f>
-        <v>0.33333333333333331</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="V5">
         <f>[2]climb!L4</f>
@@ -20314,7 +20319,7 @@
       </c>
       <c r="W5">
         <f>[2]rip!L4</f>
-        <v>1</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -20331,11 +20336,11 @@
       </c>
       <c r="D6">
         <f>'[2]shot analysis'!N6</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
         <f>'[2]shot analysis'!O6</f>
-        <v>0.57735026918962573</v>
+        <v>0.54772255750516607</v>
       </c>
       <c r="G6" t="e">
         <f>'[2]shot analysis'!AA6</f>
@@ -20359,7 +20364,7 @@
       </c>
       <c r="M6">
         <f>'[2]cheval de frise'!L5</f>
-        <v>1.6666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="N6">
         <f>[2]moat!L5</f>
@@ -20367,7 +20372,7 @@
       </c>
       <c r="O6">
         <f>[2]ramparts!L5</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="P6" t="e">
         <f>[2]drawbridge!L5</f>
@@ -20379,7 +20384,7 @@
       </c>
       <c r="R6">
         <f>'[2]rock wall'!L5</f>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="e">
         <f>'[2]rough terrain'!L5</f>
@@ -20387,15 +20392,15 @@
       </c>
       <c r="T6">
         <f>[2]lowbar!L5</f>
-        <v>0.5</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="V6">
         <f>[2]climb!L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <f>[2]rip!L5</f>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -20412,11 +20417,11 @@
       </c>
       <c r="D7">
         <f>'[2]shot analysis'!N7</f>
-        <v>1.3333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="E7">
         <f>'[2]shot analysis'!O7</f>
-        <v>1.1547005383792517</v>
+        <v>1.6431676725154984</v>
       </c>
       <c r="G7" t="e">
         <f>'[2]shot analysis'!AA7</f>
@@ -20428,11 +20433,11 @@
       </c>
       <c r="I7">
         <f>'[2]shot analysis'!AC7</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J7">
         <f>'[2]shot analysis'!AD7</f>
-        <v>0.57735026918962584</v>
+        <v>0.40824829046386302</v>
       </c>
       <c r="L7">
         <f>[2]portcullis!L6</f>
@@ -20440,7 +20445,7 @@
       </c>
       <c r="M7">
         <f>'[2]cheval de frise'!L6</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N7">
         <f>[2]moat!L6</f>
@@ -20448,23 +20453,23 @@
       </c>
       <c r="O7">
         <f>[2]ramparts!L6</f>
-        <v>1</v>
-      </c>
-      <c r="P7" t="e">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P7">
         <f>[2]drawbridge!L6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f>'[2]sally port'!L6</f>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="R7">
         <f>'[2]rock wall'!L6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="S7">
         <f>'[2]rough terrain'!L6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f>[2]lowbar!L6</f>
@@ -20476,7 +20481,7 @@
       </c>
       <c r="W7">
         <f>[2]rip!L6</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -20493,11 +20498,11 @@
       </c>
       <c r="D8">
         <f>'[2]shot analysis'!N8</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E8">
         <f>'[2]shot analysis'!O8</f>
-        <v>0.57735026918962584</v>
+        <v>0.37796447300922725</v>
       </c>
       <c r="G8" t="e">
         <f>'[2]shot analysis'!AA8</f>
@@ -20531,9 +20536,9 @@
         <f>[2]ramparts!L7</f>
         <v>0</v>
       </c>
-      <c r="P8" t="e">
+      <c r="P8">
         <f>[2]drawbridge!L7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f>'[2]sally port'!L7</f>
@@ -20541,11 +20546,11 @@
       </c>
       <c r="R8">
         <f>'[2]rock wall'!L7</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="S8">
         <f>'[2]rough terrain'!L7</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T8">
         <f>[2]lowbar!L7</f>
@@ -20557,7 +20562,7 @@
       </c>
       <c r="W8">
         <f>[2]rip!L7</f>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -20606,15 +20611,15 @@
       </c>
       <c r="N9">
         <f>[2]moat!L8</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="O9">
         <f>[2]ramparts!L8</f>
-        <v>2</v>
-      </c>
-      <c r="P9" t="e">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P9">
         <f>[2]drawbridge!L8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f>'[2]sally port'!L8</f>
@@ -20630,7 +20635,7 @@
       </c>
       <c r="T9">
         <f>[2]lowbar!L8</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V9">
         <f>[2]climb!L8</f>
@@ -20638,7 +20643,7 @@
       </c>
       <c r="W9">
         <f>[2]rip!L8</f>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -20655,11 +20660,11 @@
       </c>
       <c r="D10">
         <f>'[2]shot analysis'!N10</f>
-        <v>5.666666666666667</v>
+        <v>6.4</v>
       </c>
       <c r="E10">
         <f>'[2]shot analysis'!O10</f>
-        <v>3.0550504633038935</v>
+        <v>2.4083189157584584</v>
       </c>
       <c r="G10" t="e">
         <f>'[2]shot analysis'!AA10</f>
@@ -20691,11 +20696,11 @@
       </c>
       <c r="O10">
         <f>[2]ramparts!L9</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P10">
+        <f>[2]drawbridge!L9</f>
         <v>2</v>
-      </c>
-      <c r="P10" t="e">
-        <f>[2]drawbridge!L9</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="Q10">
         <f>'[2]sally port'!L9</f>
@@ -20703,7 +20708,7 @@
       </c>
       <c r="R10">
         <f>'[2]rock wall'!L9</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S10">
         <f>'[2]rough terrain'!L9</f>
@@ -20711,11 +20716,11 @@
       </c>
       <c r="T10">
         <f>[2]lowbar!L9</f>
-        <v>1.3333333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="V10">
         <f>[2]climb!L9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W10">
         <f>[2]rip!L9</f>
@@ -20780,11 +20785,11 @@
       </c>
       <c r="Q11">
         <f>'[2]sally port'!L10</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
         <f>'[2]rock wall'!L10</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="S11" t="e">
         <f>'[2]rough terrain'!L10</f>
@@ -20796,11 +20801,11 @@
       </c>
       <c r="V11">
         <f>[2]climb!L10</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W11">
         <f>[2]rip!L10</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -20817,11 +20822,11 @@
       </c>
       <c r="D12">
         <f>'[2]shot analysis'!N12</f>
-        <v>3.25</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="E12">
         <f>'[2]shot analysis'!O12</f>
-        <v>2.6299556396765835</v>
+        <v>2.3401261667248794</v>
       </c>
       <c r="G12" t="e">
         <f>'[2]shot analysis'!AA12</f>
@@ -20833,11 +20838,11 @@
       </c>
       <c r="I12">
         <f>'[2]shot analysis'!AC12</f>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J12">
         <f>'[2]shot analysis'!AD12</f>
-        <v>0.5</v>
+        <v>0.37796447300922725</v>
       </c>
       <c r="L12">
         <f>[2]portcullis!L11</f>
@@ -20845,11 +20850,11 @@
       </c>
       <c r="M12">
         <f>'[2]cheval de frise'!L11</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <f>[2]moat!L11</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O12">
         <f>[2]ramparts!L11</f>
@@ -20857,11 +20862,11 @@
       </c>
       <c r="P12">
         <f>[2]drawbridge!L11</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q12">
         <f>'[2]sally port'!L11</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <f>'[2]rock wall'!L11</f>
@@ -20877,7 +20882,7 @@
       </c>
       <c r="V12">
         <f>[2]climb!L11</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="W12">
         <f>[2]rip!L11</f>
@@ -20920,13 +20925,13 @@
         <f>'[2]shot analysis'!AD13</f>
         <v>0</v>
       </c>
-      <c r="L13" t="e">
+      <c r="L13">
         <f>[2]portcullis!L12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f>'[2]cheval de frise'!L12</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
         <f>[2]moat!L12</f>
@@ -20934,23 +20939,23 @@
       </c>
       <c r="O13">
         <f>[2]ramparts!L12</f>
-        <v>2</v>
-      </c>
-      <c r="P13" t="e">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <f>[2]drawbridge!L12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f>'[2]sally port'!L12</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R13">
         <f>'[2]rock wall'!L12</f>
         <v>0</v>
       </c>
-      <c r="S13" t="e">
+      <c r="S13">
         <f>'[2]rough terrain'!L12</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <f>[2]lowbar!L12</f>
@@ -20962,7 +20967,7 @@
       </c>
       <c r="W13">
         <f>[2]rip!L12</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -20979,11 +20984,11 @@
       </c>
       <c r="D14">
         <f>'[2]shot analysis'!N14</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
         <f>'[2]shot analysis'!O14</f>
-        <v>0.57735026918962584</v>
+        <v>0.44721359549995793</v>
       </c>
       <c r="G14" t="e">
         <f>'[2]shot analysis'!AA14</f>
@@ -21007,7 +21012,7 @@
       </c>
       <c r="M14">
         <f>'[2]cheval de frise'!L13</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N14">
         <f>[2]moat!L13</f>
@@ -21015,19 +21020,19 @@
       </c>
       <c r="O14">
         <f>[2]ramparts!L13</f>
-        <v>2</v>
-      </c>
-      <c r="P14" t="e">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <f>[2]drawbridge!L13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f>'[2]sally port'!L13</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
         <f>'[2]rock wall'!L13</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="S14">
         <f>'[2]rough terrain'!L13</f>
@@ -21035,11 +21040,11 @@
       </c>
       <c r="T14">
         <f>[2]lowbar!L13</f>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="V14">
         <f>[2]climb!L13</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W14">
         <f>[2]rip!L13</f>
@@ -21060,11 +21065,11 @@
       </c>
       <c r="D15">
         <f>'[2]shot analysis'!N15</f>
-        <v>1.3333333333333333</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="E15">
         <f>'[2]shot analysis'!O15</f>
-        <v>1.1547005383792517</v>
+        <v>0.78679579246944309</v>
       </c>
       <c r="G15" t="e">
         <f>'[2]shot analysis'!AA15</f>
@@ -21076,31 +21081,31 @@
       </c>
       <c r="I15">
         <f>'[2]shot analysis'!AC15</f>
-        <v>0.66666666666666663</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J15">
         <f>'[2]shot analysis'!AD15</f>
-        <v>1.1547005383792517</v>
+        <v>0.7867957924694432</v>
       </c>
       <c r="L15">
         <f>[2]portcullis!L14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>'[2]cheval de frise'!L14</f>
-        <v>1.5</v>
-      </c>
-      <c r="N15" t="e">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <f>[2]moat!L14</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <f>[2]ramparts!L14</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P15" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
         <f>[2]drawbridge!L14</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <f>'[2]sally port'!L14</f>
@@ -21112,15 +21117,15 @@
       </c>
       <c r="S15">
         <f>'[2]rough terrain'!L14</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T15">
         <f>[2]lowbar!L14</f>
-        <v>2</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="V15">
         <f>[2]climb!L14</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W15">
         <f>[2]rip!L14</f>
@@ -21141,11 +21146,11 @@
       </c>
       <c r="D16">
         <f>'[2]shot analysis'!N16</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E16">
         <f>'[2]shot analysis'!O16</f>
-        <v>0</v>
+        <v>0.4879500364742666</v>
       </c>
       <c r="G16" t="e">
         <f>'[2]shot analysis'!AA16</f>
@@ -21157,11 +21162,11 @@
       </c>
       <c r="I16">
         <f>'[2]shot analysis'!AC16</f>
-        <v>1.3333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J16">
         <f>'[2]shot analysis'!AD16</f>
-        <v>1.1547005383792517</v>
+        <v>1.0690449676496976</v>
       </c>
       <c r="L16">
         <f>[2]portcullis!L15</f>
@@ -21189,11 +21194,11 @@
       </c>
       <c r="R16">
         <f>'[2]rock wall'!L15</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S16" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="S16">
         <f>'[2]rough terrain'!L15</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <f>[2]lowbar!L15</f>
@@ -21238,23 +21243,23 @@
       </c>
       <c r="I17">
         <f>'[2]shot analysis'!AC17</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J17">
         <f>'[2]shot analysis'!AD17</f>
-        <v>0.5</v>
+        <v>0.40824829046386302</v>
       </c>
       <c r="L17">
         <f>[2]portcullis!L16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f>'[2]cheval de frise'!L16</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="N17">
         <f>[2]moat!L16</f>
-        <v>0.75</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O17" t="e">
         <f>[2]ramparts!L16</f>
@@ -21266,19 +21271,19 @@
       </c>
       <c r="Q17">
         <f>'[2]sally port'!L16</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
         <f>'[2]rock wall'!L16</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="S17">
         <f>'[2]rough terrain'!L16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <f>[2]lowbar!L16</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V17">
         <f>[2]climb!L16</f>
@@ -21319,15 +21324,15 @@
       </c>
       <c r="I18">
         <f>'[2]shot analysis'!AC18</f>
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="J18">
         <f>'[2]shot analysis'!AD18</f>
-        <v>0.89442719099991586</v>
-      </c>
-      <c r="L18" t="e">
+        <v>0.91612538131290433</v>
+      </c>
+      <c r="L18">
         <f>[2]portcullis!L17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f>'[2]cheval de frise'!L17</f>
@@ -21335,7 +21340,7 @@
       </c>
       <c r="N18">
         <f>[2]moat!L17</f>
-        <v>1.25</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O18">
         <f>[2]ramparts!L17</f>
@@ -21359,15 +21364,15 @@
       </c>
       <c r="T18">
         <f>[2]lowbar!L17</f>
-        <v>0.4</v>
-      </c>
-      <c r="V18" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
         <f>[2]climb!L17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W18" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="W18">
         <f>[2]rip!L17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -21384,11 +21389,11 @@
       </c>
       <c r="D19">
         <f>'[2]shot analysis'!N19</f>
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E19">
         <f>'[2]shot analysis'!O19</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G19" t="e">
         <f>'[2]shot analysis'!AA19</f>
@@ -21400,15 +21405,15 @@
       </c>
       <c r="I19">
         <f>'[2]shot analysis'!AC19</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J19">
         <f>'[2]shot analysis'!AD19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" t="e">
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="L19">
         <f>[2]portcullis!L18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f>'[2]cheval de frise'!L18</f>
@@ -21420,7 +21425,7 @@
       </c>
       <c r="O19">
         <f>[2]ramparts!L18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <f>[2]drawbridge!L18</f>
@@ -21432,15 +21437,15 @@
       </c>
       <c r="R19">
         <f>'[2]rock wall'!L18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <f>'[2]rough terrain'!L18</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T19">
         <f>[2]lowbar!L18</f>
-        <v>1</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="V19">
         <f>[2]climb!L18</f>
@@ -21448,7 +21453,7 @@
       </c>
       <c r="W19">
         <f>[2]rip!L18</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -21481,23 +21486,23 @@
       </c>
       <c r="I20">
         <f>'[2]shot analysis'!AC20</f>
-        <v>0.33333333333333331</v>
+        <v>1.5</v>
       </c>
       <c r="J20">
         <f>'[2]shot analysis'!AD20</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="L20" t="e">
+        <v>1.3784048752090221</v>
+      </c>
+      <c r="L20">
         <f>[2]portcullis!L19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f>'[2]cheval de frise'!L19</f>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="N20">
         <f>[2]moat!L19</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O20">
         <f>[2]ramparts!L19</f>
@@ -21515,13 +21520,13 @@
         <f>'[2]rock wall'!L19</f>
         <v>1</v>
       </c>
-      <c r="S20" t="e">
+      <c r="S20">
         <f>'[2]rough terrain'!L19</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <f>[2]lowbar!L19</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <f>[2]climb!L19</f>
@@ -21529,7 +21534,7 @@
       </c>
       <c r="W20">
         <f>[2]rip!L19</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -21546,11 +21551,11 @@
       </c>
       <c r="D21">
         <f>'[2]shot analysis'!N21</f>
-        <v>2.5</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="E21">
         <f>'[2]shot analysis'!O21</f>
-        <v>0.57735026918962573</v>
+        <v>1.169045194450012</v>
       </c>
       <c r="G21" t="e">
         <f>'[2]shot analysis'!AA21</f>
@@ -21578,15 +21583,15 @@
       </c>
       <c r="N21">
         <f>[2]moat!L20</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O21">
         <f>[2]ramparts!L20</f>
-        <v>1</v>
-      </c>
-      <c r="P21" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P21">
         <f>[2]drawbridge!L20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <f>'[2]sally port'!L20</f>
@@ -21594,7 +21599,7 @@
       </c>
       <c r="R21">
         <f>'[2]rock wall'!L20</f>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="S21">
         <f>'[2]rough terrain'!L20</f>
@@ -21602,7 +21607,7 @@
       </c>
       <c r="T21">
         <f>[2]lowbar!L20</f>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="V21">
         <f>[2]climb!L20</f>
@@ -21627,7 +21632,7 @@
       </c>
       <c r="D22">
         <f>'[2]shot analysis'!N22</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f>'[2]shot analysis'!O22</f>
@@ -21649,21 +21654,21 @@
         <f>'[2]shot analysis'!AD22</f>
         <v>0</v>
       </c>
-      <c r="L22" t="e">
+      <c r="L22">
         <f>[2]portcullis!L21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <f>'[2]cheval de frise'!L21</f>
         <v>0</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22">
         <f>[2]moat!L21</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
       <c r="O22">
         <f>[2]ramparts!L21</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P22">
         <f>[2]drawbridge!L21</f>
@@ -21675,23 +21680,23 @@
       </c>
       <c r="R22">
         <f>'[2]rock wall'!L21</f>
-        <v>0</v>
-      </c>
-      <c r="S22" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
         <f>'[2]rough terrain'!L21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <f>[2]lowbar!L21</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V22">
         <f>[2]climb!L21</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W22">
         <f>[2]rip!L21</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -21708,11 +21713,11 @@
       </c>
       <c r="D23">
         <f>'[2]shot analysis'!N23</f>
-        <v>4.666666666666667</v>
+        <v>5.8</v>
       </c>
       <c r="E23">
         <f>'[2]shot analysis'!O23</f>
-        <v>3.0550504633038935</v>
+        <v>2.6832815729997481</v>
       </c>
       <c r="G23" t="e">
         <f>'[2]shot analysis'!AA23</f>
@@ -21744,7 +21749,7 @@
       </c>
       <c r="O23">
         <f>[2]ramparts!L22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <f>[2]drawbridge!L22</f>
@@ -21752,11 +21757,11 @@
       </c>
       <c r="Q23">
         <f>'[2]sally port'!L22</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="R23">
         <f>'[2]rock wall'!L22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <f>'[2]rough terrain'!L22</f>
@@ -21766,13 +21771,13 @@
         <f>[2]lowbar!L22</f>
         <v>2</v>
       </c>
-      <c r="V23" t="e">
+      <c r="V23">
         <f>[2]climb!L22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="W23">
         <f>[2]rip!L22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -21805,11 +21810,11 @@
       </c>
       <c r="I24">
         <f>'[2]shot analysis'!AC24</f>
-        <v>0.8</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="J24">
         <f>'[2]shot analysis'!AD24</f>
-        <v>1.7888543819998317</v>
+        <v>1.4813657362192649</v>
       </c>
       <c r="L24" t="e">
         <f>[2]portcullis!L23</f>
@@ -21817,35 +21822,35 @@
       </c>
       <c r="M24">
         <f>'[2]cheval de frise'!L23</f>
-        <v>0.8</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="N24">
         <f>[2]moat!L23</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <f>[2]ramparts!L23</f>
-        <v>1.5</v>
-      </c>
-      <c r="P24" t="e">
+        <v>1.8</v>
+      </c>
+      <c r="P24">
         <f>[2]drawbridge!L23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <f>'[2]sally port'!L23</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
         <f>'[2]rock wall'!L23</f>
-        <v>1.25</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="S24">
         <f>'[2]rough terrain'!L23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <f>[2]lowbar!L23</f>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="V24">
         <f>[2]climb!L23</f>
@@ -21853,7 +21858,7 @@
       </c>
       <c r="W24">
         <f>[2]rip!L23</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -21870,11 +21875,11 @@
       </c>
       <c r="D25">
         <f>'[2]shot analysis'!N25</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
         <f>'[2]shot analysis'!O25</f>
-        <v>1</v>
+        <v>0.83666002653407556</v>
       </c>
       <c r="G25" t="e">
         <f>'[2]shot analysis'!AA25</f>
@@ -21886,15 +21891,15 @@
       </c>
       <c r="I25">
         <f>'[2]shot analysis'!AC25</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
         <f>'[2]shot analysis'!AD25</f>
-        <v>1.1547005383792517</v>
-      </c>
-      <c r="L25" t="e">
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="L25">
         <f>[2]portcullis!L24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f>'[2]cheval de frise'!L24</f>
@@ -21902,39 +21907,39 @@
       </c>
       <c r="N25">
         <f>[2]moat!L24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <f>[2]ramparts!L24</f>
         <v>1</v>
       </c>
-      <c r="P25" t="e">
+      <c r="P25">
         <f>[2]drawbridge!L24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <f>'[2]sally port'!L24</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
         <f>'[2]rock wall'!L24</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S25" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
         <f>'[2]rough terrain'!L24</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <f>[2]lowbar!L24</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <f>[2]climb!L24</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W25">
         <f>[2]rip!L24</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -21951,11 +21956,11 @@
       </c>
       <c r="D26">
         <f>'[2]shot analysis'!N26</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E26">
         <f>'[2]shot analysis'!O26</f>
-        <v>0</v>
+        <v>0.37796447300922725</v>
       </c>
       <c r="G26" t="e">
         <f>'[2]shot analysis'!AA26</f>
@@ -21967,19 +21972,19 @@
       </c>
       <c r="I26">
         <f>'[2]shot analysis'!AC26</f>
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J26">
         <f>'[2]shot analysis'!AD26</f>
-        <v>0.57735026918962573</v>
-      </c>
-      <c r="L26" t="e">
+        <v>0.4879500364742666</v>
+      </c>
+      <c r="L26">
         <f>[2]portcullis!L25</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <f>'[2]cheval de frise'!L25</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <f>[2]moat!L25</f>
@@ -21995,7 +22000,7 @@
       </c>
       <c r="Q26">
         <f>'[2]sally port'!L25</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
         <f>'[2]rock wall'!L25</f>
@@ -22003,11 +22008,11 @@
       </c>
       <c r="S26">
         <f>'[2]rough terrain'!L25</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T26">
         <f>[2]lowbar!L25</f>
-        <v>1.5</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="V26">
         <f>[2]climb!L25</f>
@@ -22015,7 +22020,7 @@
       </c>
       <c r="W26">
         <f>[2]rip!L25</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -22048,31 +22053,31 @@
       </c>
       <c r="I27">
         <f>'[2]shot analysis'!AC27</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J27">
         <f>'[2]shot analysis'!AD27</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="L27" t="e">
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="L27">
         <f>[2]portcullis!L26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <f>'[2]cheval de frise'!L26</f>
         <v>0</v>
       </c>
-      <c r="N27" t="e">
+      <c r="N27">
         <f>[2]moat!L26</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <f>[2]ramparts!L26</f>
-        <v>2</v>
-      </c>
-      <c r="P27" t="e">
+        <v>1.6</v>
+      </c>
+      <c r="P27">
         <f>[2]drawbridge!L26</f>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q27">
         <f>'[2]sally port'!L26</f>
@@ -22080,11 +22085,11 @@
       </c>
       <c r="R27">
         <f>'[2]rock wall'!L26</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
         <f>'[2]rough terrain'!L26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <f>[2]lowbar!L26</f>
@@ -22092,7 +22097,7 @@
       </c>
       <c r="V27">
         <f>[2]climb!L26</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W27">
         <f>[2]rip!L26</f>
@@ -22113,11 +22118,11 @@
       </c>
       <c r="D28">
         <f>'[2]shot analysis'!N28</f>
-        <v>3.6666666666666665</v>
+        <v>5.5</v>
       </c>
       <c r="E28">
         <f>'[2]shot analysis'!O28</f>
-        <v>3.0550504633038931</v>
+        <v>2.8809720581775866</v>
       </c>
       <c r="G28" t="e">
         <f>'[2]shot analysis'!AA28</f>
@@ -22141,7 +22146,7 @@
       </c>
       <c r="M28">
         <f>'[2]cheval de frise'!L27</f>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N28">
         <f>[2]moat!L27</f>
@@ -22149,7 +22154,7 @@
       </c>
       <c r="O28">
         <f>[2]ramparts!L27</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P28">
         <f>[2]drawbridge!L27</f>
@@ -22157,7 +22162,7 @@
       </c>
       <c r="Q28">
         <f>'[2]sally port'!L27</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R28">
         <f>'[2]rock wall'!L27</f>
@@ -22173,7 +22178,7 @@
       </c>
       <c r="V28">
         <f>[2]climb!L27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <f>[2]rip!L27</f>
@@ -22194,11 +22199,11 @@
       </c>
       <c r="D29">
         <f>'[2]shot analysis'!N29</f>
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E29">
         <f>'[2]shot analysis'!O29</f>
-        <v>0.44721359549995793</v>
+        <v>0.4879500364742666</v>
       </c>
       <c r="G29" t="e">
         <f>'[2]shot analysis'!AA29</f>
@@ -22216,9 +22221,9 @@
         <f>'[2]shot analysis'!AD29</f>
         <v>0</v>
       </c>
-      <c r="L29" t="e">
+      <c r="L29">
         <f>[2]portcullis!L28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <f>'[2]cheval de frise'!L28</f>
@@ -22230,7 +22235,7 @@
       </c>
       <c r="O29">
         <f>[2]ramparts!L28</f>
-        <v>1.3333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="P29">
         <f>[2]drawbridge!L28</f>
@@ -22238,11 +22243,11 @@
       </c>
       <c r="Q29">
         <f>'[2]sally port'!L28</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R29">
         <f>'[2]rock wall'!L28</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S29">
         <f>'[2]rough terrain'!L28</f>
@@ -22250,7 +22255,7 @@
       </c>
       <c r="T29">
         <f>[2]lowbar!L28</f>
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V29">
         <f>[2]climb!L28</f>
@@ -22258,7 +22263,7 @@
       </c>
       <c r="W29">
         <f>[2]rip!L28</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -22291,31 +22296,31 @@
       </c>
       <c r="I30">
         <f>'[2]shot analysis'!AC30</f>
-        <v>1</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="J30">
         <f>'[2]shot analysis'!AD30</f>
-        <v>1</v>
+        <v>0.95118973121134187</v>
       </c>
       <c r="L30">
         <f>[2]portcullis!L29</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M30">
         <f>'[2]cheval de frise'!L29</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N30">
         <f>[2]moat!L29</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O30">
         <f>[2]ramparts!L29</f>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="P30">
         <f>[2]drawbridge!L29</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="Q30">
         <f>'[2]sally port'!L29</f>
@@ -22323,15 +22328,15 @@
       </c>
       <c r="R30">
         <f>'[2]rock wall'!L29</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S30">
         <f>'[2]rough terrain'!L29</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <f>[2]lowbar!L29</f>
-        <v>0.66666666666666663</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="V30">
         <f>[2]climb!L29</f>
@@ -22356,11 +22361,11 @@
       </c>
       <c r="D31">
         <f>'[2]shot analysis'!N31</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E31">
         <f>'[2]shot analysis'!O31</f>
-        <v>0</v>
+        <v>0.40824829046386302</v>
       </c>
       <c r="G31" t="e">
         <f>'[2]shot analysis'!AA31</f>
@@ -22372,11 +22377,11 @@
       </c>
       <c r="I31">
         <f>'[2]shot analysis'!AC31</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J31">
         <f>'[2]shot analysis'!AD31</f>
-        <v>0</v>
+        <v>0.40824829046386302</v>
       </c>
       <c r="L31" t="e">
         <f>[2]portcullis!L30</f>
@@ -22384,7 +22389,7 @@
       </c>
       <c r="M31">
         <f>'[2]cheval de frise'!L30</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N31">
         <f>[2]moat!L30</f>
@@ -22404,23 +22409,23 @@
       </c>
       <c r="R31">
         <f>'[2]rock wall'!L30</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <f>'[2]rough terrain'!L30</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <f>[2]lowbar!L30</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="V31">
         <f>[2]climb!L30</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="W31">
         <f>[2]rip!L30</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -22453,11 +22458,11 @@
       </c>
       <c r="I32">
         <f>'[2]shot analysis'!AC32</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J32">
         <f>'[2]shot analysis'!AD32</f>
-        <v>1</v>
+        <v>0.89442719099991586</v>
       </c>
       <c r="L32">
         <f>[2]portcullis!L31</f>
@@ -22473,11 +22478,11 @@
       </c>
       <c r="O32">
         <f>[2]ramparts!L31</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P32">
         <f>[2]drawbridge!L31</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Q32">
         <f>'[2]sally port'!L31</f>
@@ -22485,7 +22490,7 @@
       </c>
       <c r="R32">
         <f>'[2]rock wall'!L31</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <f>'[2]rough terrain'!L31</f>
@@ -22493,15 +22498,15 @@
       </c>
       <c r="T32">
         <f>[2]lowbar!L31</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="V32">
         <f>[2]climb!L31</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W32">
         <f>[2]rip!L31</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -22534,39 +22539,39 @@
       </c>
       <c r="I33">
         <f>'[2]shot analysis'!AC33</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J33">
         <f>'[2]shot analysis'!AD33</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="L33" t="e">
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="L33">
         <f>[2]portcullis!L32</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <f>'[2]cheval de frise'!L32</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N33">
         <f>[2]moat!L32</f>
-        <v>1</v>
-      </c>
-      <c r="O33" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O33">
         <f>[2]ramparts!L32</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="P33">
         <f>[2]drawbridge!L32</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q33">
         <f>'[2]sally port'!L32</f>
         <v>0</v>
       </c>
-      <c r="R33" t="e">
+      <c r="R33">
         <f>'[2]rock wall'!L32</f>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
       <c r="S33">
         <f>'[2]rough terrain'!L32</f>
@@ -22574,15 +22579,15 @@
       </c>
       <c r="T33">
         <f>[2]lowbar!L32</f>
-        <v>0</v>
-      </c>
-      <c r="V33" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V33">
         <f>[2]climb!L32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W33" t="e">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W33">
         <f>[2]rip!L32</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -22615,19 +22620,19 @@
       </c>
       <c r="I34">
         <f>'[2]shot analysis'!AC34</f>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J34">
         <f>'[2]shot analysis'!AD34</f>
-        <v>0.44721359549995793</v>
+        <v>0.37796447300922725</v>
       </c>
       <c r="L34">
         <f>[2]portcullis!L33</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M34">
         <f>'[2]cheval de frise'!L33</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N34">
         <f>[2]moat!L33</f>
@@ -22647,7 +22652,7 @@
       </c>
       <c r="R34">
         <f>'[2]rock wall'!L33</f>
-        <v>1</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="S34">
         <f>'[2]rough terrain'!L33</f>
@@ -22655,7 +22660,7 @@
       </c>
       <c r="T34">
         <f>[2]lowbar!L33</f>
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V34">
         <f>[2]climb!L33</f>
@@ -22663,7 +22668,7 @@
       </c>
       <c r="W34">
         <f>[2]rip!L33</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -22696,15 +22701,15 @@
       </c>
       <c r="I35">
         <f>'[2]shot analysis'!AC35</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J35">
         <f>'[2]shot analysis'!AD35</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="L35" t="e">
+        <v>0.752772652709081</v>
+      </c>
+      <c r="L35">
         <f>[2]portcullis!L34</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <f>'[2]cheval de frise'!L34</f>
@@ -22716,7 +22721,7 @@
       </c>
       <c r="O35">
         <f>[2]ramparts!L34</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="P35">
         <f>[2]drawbridge!L34</f>
@@ -22740,11 +22745,11 @@
       </c>
       <c r="V35">
         <f>[2]climb!L34</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W35">
         <f>[2]rip!L34</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -22761,11 +22766,11 @@
       </c>
       <c r="D36">
         <f>'[2]shot analysis'!N36</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <f>'[2]shot analysis'!O36</f>
-        <v>1.5275252316519468</v>
+        <v>1.2247448713915889</v>
       </c>
       <c r="G36" t="e">
         <f>'[2]shot analysis'!AA36</f>
@@ -22789,7 +22794,7 @@
       </c>
       <c r="M36">
         <f>'[2]cheval de frise'!L35</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="N36">
         <f>[2]moat!L35</f>
@@ -22799,13 +22804,13 @@
         <f>[2]ramparts!L35</f>
         <v>0</v>
       </c>
-      <c r="P36" t="e">
+      <c r="P36">
         <f>[2]drawbridge!L35</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <f>'[2]sally port'!L35</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
         <f>'[2]rock wall'!L35</f>
@@ -22821,7 +22826,7 @@
       </c>
       <c r="V36">
         <f>[2]climb!L35</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W36">
         <f>[2]rip!L35</f>
@@ -22858,11 +22863,11 @@
       </c>
       <c r="I37">
         <f>'[2]shot analysis'!AC37</f>
-        <v>0.2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J37">
         <f>'[2]shot analysis'!AD37</f>
-        <v>0.44721359549995793</v>
+        <v>1.4960264830861913</v>
       </c>
       <c r="L37">
         <f>[2]portcullis!L36</f>
@@ -22880,9 +22885,9 @@
         <f>[2]ramparts!L36</f>
         <v>0</v>
       </c>
-      <c r="P37" t="e">
+      <c r="P37">
         <f>[2]drawbridge!L36</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <f>'[2]sally port'!L36</f>
@@ -22894,7 +22899,7 @@
       </c>
       <c r="S37">
         <f>'[2]rough terrain'!L36</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="T37">
         <f>[2]lowbar!L36</f>
@@ -22902,11 +22907,11 @@
       </c>
       <c r="V37">
         <f>[2]climb!L36</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W37">
         <f>[2]rip!L36</f>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -22943,11 +22948,11 @@
       </c>
       <c r="J38">
         <f>'[2]shot analysis'!AD38</f>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="L38" t="e">
+        <v>0.51639777949432231</v>
+      </c>
+      <c r="L38">
         <f>[2]portcullis!L37</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <f>'[2]cheval de frise'!L37</f>
@@ -22955,11 +22960,11 @@
       </c>
       <c r="N38">
         <f>[2]moat!L37</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O38">
         <f>[2]ramparts!L37</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P38">
         <f>[2]drawbridge!L37</f>
@@ -22967,11 +22972,11 @@
       </c>
       <c r="Q38">
         <f>'[2]sally port'!L37</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R38">
         <f>'[2]rock wall'!L37</f>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="S38">
         <f>'[2]rough terrain'!L37</f>
@@ -22979,7 +22984,7 @@
       </c>
       <c r="T38">
         <f>[2]lowbar!L37</f>
-        <v>1.3333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V38">
         <f>[2]climb!L37</f>
@@ -22987,7 +22992,7 @@
       </c>
       <c r="W38">
         <f>[2]rip!L37</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -23036,11 +23041,11 @@
       </c>
       <c r="N39">
         <f>[2]moat!L38</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <f>[2]ramparts!L38</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P39" t="e">
         <f>[2]drawbridge!L38</f>
@@ -23052,15 +23057,15 @@
       </c>
       <c r="R39">
         <f>'[2]rock wall'!L38</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="S39" t="e">
+        <v>1.6</v>
+      </c>
+      <c r="S39">
         <f>'[2]rough terrain'!L38</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <f>[2]lowbar!L38</f>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V39">
         <f>[2]climb!L38</f>
@@ -23068,7 +23073,7 @@
       </c>
       <c r="W39">
         <f>[2]rip!L38</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -23085,11 +23090,11 @@
       </c>
       <c r="D40">
         <f>'[2]shot analysis'!N40</f>
-        <v>2.5</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="E40">
         <f>'[2]shot analysis'!O40</f>
-        <v>0.57735026918962573</v>
+        <v>1.1126972805283737</v>
       </c>
       <c r="G40" t="e">
         <f>'[2]shot analysis'!AA40</f>
@@ -23107,25 +23112,25 @@
         <f>'[2]shot analysis'!AD40</f>
         <v>0</v>
       </c>
-      <c r="L40" t="e">
+      <c r="L40">
         <f>[2]portcullis!L39</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <f>'[2]cheval de frise'!L39</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N40">
         <f>[2]moat!L39</f>
         <v>0</v>
       </c>
-      <c r="O40" t="e">
+      <c r="O40">
         <f>[2]ramparts!L39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P40" t="e">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <f>[2]drawbridge!L39</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <f>'[2]sally port'!L39</f>
@@ -23133,7 +23138,7 @@
       </c>
       <c r="R40">
         <f>'[2]rock wall'!L39</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S40">
         <f>'[2]rough terrain'!L39</f>
@@ -23143,13 +23148,13 @@
         <f>[2]lowbar!L39</f>
         <v>2</v>
       </c>
-      <c r="V40" t="e">
+      <c r="V40">
         <f>[2]climb!L39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W40" t="e">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <f>[2]rip!L39</f>
-        <v>#DIV/0!</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -23182,15 +23187,15 @@
       </c>
       <c r="I41">
         <f>'[2]shot analysis'!AC41</f>
-        <v>2.6666666666666665</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="J41">
         <f>'[2]shot analysis'!AD41</f>
-        <v>1.5275252316519468</v>
-      </c>
-      <c r="L41" t="e">
+        <v>1.0690449676496974</v>
+      </c>
+      <c r="L41">
         <f>[2]portcullis!L40</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <f>'[2]cheval de frise'!L40</f>
@@ -23202,11 +23207,11 @@
       </c>
       <c r="O41">
         <f>[2]ramparts!L40</f>
-        <v>2</v>
-      </c>
-      <c r="P41" t="e">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P41">
         <f>[2]drawbridge!L40</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <f>'[2]sally port'!L40</f>
@@ -23216,21 +23221,21 @@
         <f>'[2]rock wall'!L40</f>
         <v>2</v>
       </c>
-      <c r="S41" t="e">
+      <c r="S41">
         <f>'[2]rough terrain'!L40</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <f>[2]lowbar!L40</f>
-        <v>1.3333333333333333</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="V41">
         <f>[2]climb!L40</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="W41">
         <f>[2]rip!L40</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -23247,11 +23252,11 @@
       </c>
       <c r="D42">
         <f>'[2]shot analysis'!N42</f>
-        <v>2.3333333333333335</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="E42">
         <f>'[2]shot analysis'!O42</f>
-        <v>1.1547005383792517</v>
+        <v>1.4719601443879746</v>
       </c>
       <c r="G42" t="e">
         <f>'[2]shot analysis'!AA42</f>
@@ -23263,19 +23268,19 @@
       </c>
       <c r="I42">
         <f>'[2]shot analysis'!AC42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <f>'[2]shot analysis'!AD42</f>
-        <v>0</v>
+        <v>1.6733200530681511</v>
       </c>
       <c r="L42">
         <f>[2]portcullis!L41</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M42">
         <f>'[2]cheval de frise'!L41</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N42">
         <f>[2]moat!L41</f>
@@ -23283,11 +23288,11 @@
       </c>
       <c r="O42">
         <f>[2]ramparts!L41</f>
-        <v>1</v>
-      </c>
-      <c r="P42" t="e">
+        <v>1.75</v>
+      </c>
+      <c r="P42">
         <f>[2]drawbridge!L41</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <f>'[2]sally port'!L41</f>
@@ -23295,7 +23300,7 @@
       </c>
       <c r="R42">
         <f>'[2]rock wall'!L41</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="S42">
         <f>'[2]rough terrain'!L41</f>
@@ -23303,7 +23308,7 @@
       </c>
       <c r="T42">
         <f>[2]lowbar!L41</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <f>[2]climb!L41</f>
@@ -23409,11 +23414,11 @@
       </c>
       <c r="D44">
         <f>'[2]shot analysis'!N44</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E44">
         <f>'[2]shot analysis'!O44</f>
-        <v>0.57735026918962573</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="G44" t="e">
         <f>'[2]shot analysis'!AA44</f>
@@ -23425,11 +23430,11 @@
       </c>
       <c r="I44">
         <f>'[2]shot analysis'!AC44</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J44">
         <f>'[2]shot analysis'!AD44</f>
-        <v>0.5</v>
+        <v>0.51754916950676566</v>
       </c>
       <c r="L44">
         <f>[2]portcullis!L43</f>
@@ -23445,15 +23450,15 @@
       </c>
       <c r="O44">
         <f>[2]ramparts!L43</f>
+        <v>0.4</v>
+      </c>
+      <c r="P44">
+        <f>[2]drawbridge!L43</f>
         <v>1</v>
-      </c>
-      <c r="P44" t="e">
-        <f>[2]drawbridge!L43</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="Q44">
         <f>'[2]sally port'!L43</f>
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R44">
         <f>'[2]rock wall'!L43</f>
@@ -23461,11 +23466,11 @@
       </c>
       <c r="S44">
         <f>'[2]rough terrain'!L43</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T44">
         <f>[2]lowbar!L43</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V44">
         <f>[2]climb!L43</f>
@@ -23473,7 +23478,7 @@
       </c>
       <c r="W44">
         <f>[2]rip!L43</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -23490,11 +23495,11 @@
       </c>
       <c r="D45">
         <f>'[2]shot analysis'!N45</f>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E45">
         <f>'[2]shot analysis'!O45</f>
-        <v>0.5</v>
+        <v>0.37796447300922725</v>
       </c>
       <c r="G45" t="e">
         <f>'[2]shot analysis'!AA45</f>
@@ -23506,27 +23511,27 @@
       </c>
       <c r="I45">
         <f>'[2]shot analysis'!AC45</f>
-        <v>0.25</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J45">
         <f>'[2]shot analysis'!AD45</f>
-        <v>0.5</v>
-      </c>
-      <c r="L45" t="e">
+        <v>0.37796447300922725</v>
+      </c>
+      <c r="L45">
         <f>[2]portcullis!L44</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <f>'[2]cheval de frise'!L44</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N45">
         <f>[2]moat!L44</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O45">
         <f>[2]ramparts!L44</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="P45">
         <f>[2]drawbridge!L44</f>
@@ -23534,11 +23539,11 @@
       </c>
       <c r="Q45">
         <f>'[2]sally port'!L44</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="R45">
         <f>'[2]rock wall'!L44</f>
-        <v>1.3333333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="S45">
         <f>'[2]rough terrain'!L44</f>
@@ -23546,7 +23551,7 @@
       </c>
       <c r="T45">
         <f>[2]lowbar!L44</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V45">
         <f>[2]climb!L44</f>
@@ -23554,7 +23559,7 @@
       </c>
       <c r="W45">
         <f>[2]rip!L44</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -23587,11 +23592,11 @@
       </c>
       <c r="I46">
         <f>'[2]shot analysis'!AC46</f>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J46">
         <f>'[2]shot analysis'!AD46</f>
-        <v>0.57735026918962573</v>
+        <v>0.53452248382484879</v>
       </c>
       <c r="L46">
         <f>[2]portcullis!L45</f>
@@ -23603,11 +23608,11 @@
       </c>
       <c r="N46">
         <f>[2]moat!L45</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O46">
         <f>[2]ramparts!L45</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P46">
         <f>[2]drawbridge!L45</f>
@@ -23623,7 +23628,7 @@
       </c>
       <c r="S46">
         <f>'[2]rough terrain'!L45</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T46">
         <f>[2]lowbar!L45</f>
@@ -23635,7 +23640,7 @@
       </c>
       <c r="W46">
         <f>[2]rip!L45</f>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -23672,7 +23677,7 @@
       </c>
       <c r="J47">
         <f>'[2]shot analysis'!AD47</f>
-        <v>0.70710678118654757</v>
+        <v>0.57735026918962573</v>
       </c>
       <c r="L47">
         <f>[2]portcullis!L46</f>
@@ -23688,7 +23693,7 @@
       </c>
       <c r="O47">
         <f>[2]ramparts!L46</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P47" t="e">
         <f>[2]drawbridge!L46</f>
@@ -23700,15 +23705,15 @@
       </c>
       <c r="R47">
         <f>'[2]rock wall'!L46</f>
-        <v>1</v>
-      </c>
-      <c r="S47" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S47">
         <f>'[2]rough terrain'!L46</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <f>[2]lowbar!L46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <f>[2]climb!L46</f>
@@ -23716,7 +23721,7 @@
       </c>
       <c r="W47">
         <f>[2]rip!L46</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -23749,11 +23754,11 @@
       </c>
       <c r="I48">
         <f>'[2]shot analysis'!AC48</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J48">
         <f>'[2]shot analysis'!AD48</f>
-        <v>0</v>
+        <v>0.75592894601845451</v>
       </c>
       <c r="L48">
         <f>[2]portcullis!L47</f>
@@ -23765,15 +23770,15 @@
       </c>
       <c r="N48">
         <f>[2]moat!L47</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O48">
         <f>[2]ramparts!L47</f>
-        <v>0</v>
-      </c>
-      <c r="P48" t="e">
+        <v>1</v>
+      </c>
+      <c r="P48">
         <f>[2]drawbridge!L47</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <f>'[2]sally port'!L47</f>
@@ -23781,11 +23786,11 @@
       </c>
       <c r="R48">
         <f>'[2]rock wall'!L47</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S48">
         <f>'[2]rough terrain'!L47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <f>[2]lowbar!L47</f>
@@ -23793,11 +23798,11 @@
       </c>
       <c r="V48">
         <f>[2]climb!L47</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <f>[2]rip!L47</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -23842,15 +23847,15 @@
       </c>
       <c r="M49">
         <f>'[2]cheval de frise'!L48</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <f>[2]moat!L48</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O49">
         <f>[2]ramparts!L48</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P49">
         <f>[2]drawbridge!L48</f>
@@ -23862,15 +23867,15 @@
       </c>
       <c r="R49">
         <f>'[2]rock wall'!L48</f>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="S49">
         <f>'[2]rough terrain'!L48</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="T49">
         <f>[2]lowbar!L48</f>
-        <v>0.4</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="V49">
         <f>[2]climb!L48</f>
@@ -23878,7 +23883,7 @@
       </c>
       <c r="W49">
         <f>[2]rip!L48</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -23895,11 +23900,11 @@
       </c>
       <c r="D50">
         <f>'[2]shot analysis'!N50</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E50">
         <f>'[2]shot analysis'!O50</f>
-        <v>0.70710678118654757</v>
+        <v>0.51639777949432231</v>
       </c>
       <c r="G50" t="e">
         <f>'[2]shot analysis'!AA50</f>
@@ -23911,27 +23916,27 @@
       </c>
       <c r="I50">
         <f>'[2]shot analysis'!AC50</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J50">
         <f>'[2]shot analysis'!AD50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" t="e">
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="L50">
         <f>[2]portcullis!L49</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <f>'[2]cheval de frise'!L49</f>
         <v>0</v>
       </c>
-      <c r="N50" t="e">
+      <c r="N50">
         <f>[2]moat!L49</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="O50">
         <f>[2]ramparts!L49</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P50" t="e">
         <f>[2]drawbridge!L49</f>
@@ -23939,19 +23944,19 @@
       </c>
       <c r="Q50">
         <f>'[2]sally port'!L49</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R50">
         <f>'[2]rock wall'!L49</f>
-        <v>1</v>
-      </c>
-      <c r="S50" t="e">
+        <v>1.2</v>
+      </c>
+      <c r="S50">
         <f>'[2]rough terrain'!L49</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <f>[2]lowbar!L49</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50">
         <f>[2]climb!L49</f>
@@ -23959,7 +23964,7 @@
       </c>
       <c r="W50">
         <f>[2]rip!L49</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -23992,11 +23997,11 @@
       </c>
       <c r="I51">
         <f>'[2]shot analysis'!AC51</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J51">
         <f>'[2]shot analysis'!AD51</f>
-        <v>1</v>
+        <v>0.89442719099991586</v>
       </c>
       <c r="L51" t="e">
         <f>[2]portcullis!L50</f>
@@ -24012,7 +24017,7 @@
       </c>
       <c r="O51">
         <f>[2]ramparts!L50</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P51">
         <f>[2]drawbridge!L50</f>
@@ -24040,7 +24045,7 @@
       </c>
       <c r="W51">
         <f>[2]rip!L50</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -24057,11 +24062,11 @@
       </c>
       <c r="D52">
         <f>'[2]shot analysis'!N52</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E52">
         <f>'[2]shot analysis'!O52</f>
-        <v>0</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="G52" t="e">
         <f>'[2]shot analysis'!AA52</f>
@@ -24073,23 +24078,23 @@
       </c>
       <c r="I52">
         <f>'[2]shot analysis'!AC52</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J52">
         <f>'[2]shot analysis'!AD52</f>
-        <v>0</v>
-      </c>
-      <c r="L52" t="e">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="L52">
         <f>[2]portcullis!L51</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <f>'[2]cheval de frise'!L51</f>
-        <v>0.4</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N52">
         <f>[2]moat!L51</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <f>[2]ramparts!L51</f>
@@ -24101,7 +24106,7 @@
       </c>
       <c r="Q52">
         <f>'[2]sally port'!L51</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R52">
         <f>'[2]rock wall'!L51</f>
@@ -24109,19 +24114,19 @@
       </c>
       <c r="S52">
         <f>'[2]rough terrain'!L51</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T52">
         <f>[2]lowbar!L51</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="V52">
         <f>[2]climb!L51</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W52">
         <f>[2]rip!L51</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -24154,39 +24159,39 @@
       </c>
       <c r="I53">
         <f>'[2]shot analysis'!AC53</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J53">
         <f>'[2]shot analysis'!AD53</f>
-        <v>0.81649658092772603</v>
-      </c>
-      <c r="L53" t="e">
+        <v>0.69006555934235414</v>
+      </c>
+      <c r="L53">
         <f>[2]portcullis!L52</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <f>'[2]cheval de frise'!L52</f>
         <v>0</v>
       </c>
-      <c r="N53" t="e">
+      <c r="N53">
         <f>[2]moat!L52</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <f>[2]ramparts!L52</f>
-        <v>0</v>
-      </c>
-      <c r="P53" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="P53">
         <f>[2]drawbridge!L52</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <f>'[2]sally port'!L52</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R53">
         <f>'[2]rock wall'!L52</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="S53">
         <f>'[2]rough terrain'!L52</f>
@@ -24194,7 +24199,7 @@
       </c>
       <c r="T53">
         <f>[2]lowbar!L52</f>
-        <v>1.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V53">
         <f>[2]climb!L52</f>
@@ -24202,7 +24207,7 @@
       </c>
       <c r="W53">
         <f>[2]rip!L52</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -24235,11 +24240,11 @@
       </c>
       <c r="I54">
         <f>'[2]shot analysis'!AC54</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="J54">
         <f>'[2]shot analysis'!AD54</f>
-        <v>1.1547005383792517</v>
+        <v>0.89442719099991586</v>
       </c>
       <c r="L54">
         <f>[2]portcullis!L53</f>
@@ -24255,7 +24260,7 @@
       </c>
       <c r="O54">
         <f>[2]ramparts!L53</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="P54" t="e">
         <f>[2]drawbridge!L53</f>
@@ -24263,11 +24268,11 @@
       </c>
       <c r="Q54">
         <f>'[2]sally port'!L53</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R54">
         <f>'[2]rock wall'!L53</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S54">
         <f>'[2]rough terrain'!L53</f>
@@ -24275,7 +24280,7 @@
       </c>
       <c r="T54">
         <f>[2]lowbar!L53</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V54">
         <f>[2]climb!L53</f>
@@ -24283,7 +24288,7 @@
       </c>
       <c r="W54">
         <f>[2]rip!L53</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -24316,11 +24321,11 @@
       </c>
       <c r="I55">
         <f>'[2]shot analysis'!AC55</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J55">
         <f>'[2]shot analysis'!AD55</f>
-        <v>1.1547005383792515</v>
+        <v>1.8618986725025255</v>
       </c>
       <c r="L55" t="e">
         <f>[2]portcullis!L54</f>
@@ -24328,7 +24333,7 @@
       </c>
       <c r="M55">
         <f>'[2]cheval de frise'!L54</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N55">
         <f>[2]moat!L54</f>
@@ -24336,19 +24341,19 @@
       </c>
       <c r="O55">
         <f>[2]ramparts!L54</f>
-        <v>1</v>
-      </c>
-      <c r="P55" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P55">
         <f>[2]drawbridge!L54</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <f>'[2]sally port'!L54</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R55">
         <f>'[2]rock wall'!L54</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="S55">
         <f>'[2]rough terrain'!L54</f>
@@ -24356,7 +24361,7 @@
       </c>
       <c r="T55">
         <f>[2]lowbar!L54</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="V55">
         <f>[2]climb!L54</f>
@@ -24364,7 +24369,7 @@
       </c>
       <c r="W55">
         <f>[2]rip!L54</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -24397,43 +24402,43 @@
       </c>
       <c r="I56">
         <f>'[2]shot analysis'!AC56</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J56">
         <f>'[2]shot analysis'!AD56</f>
-        <v>0</v>
-      </c>
-      <c r="L56" t="e">
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="L56">
         <f>[2]portcullis!L55</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <f>'[2]cheval de frise'!L55</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N56">
         <f>[2]moat!L55</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O56">
         <f>[2]ramparts!L55</f>
         <v>0</v>
       </c>
-      <c r="P56" t="e">
+      <c r="P56">
         <f>[2]drawbridge!L55</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <f>'[2]sally port'!L55</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R56">
         <f>'[2]rock wall'!L55</f>
-        <v>0</v>
-      </c>
-      <c r="S56" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S56">
         <f>'[2]rough terrain'!L55</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <f>[2]lowbar!L55</f>
@@ -24445,7 +24450,7 @@
       </c>
       <c r="W56">
         <f>[2]rip!L55</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -24484,13 +24489,13 @@
         <f>'[2]shot analysis'!AD57</f>
         <v>0</v>
       </c>
-      <c r="L57" t="e">
+      <c r="L57">
         <f>[2]portcullis!L56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <f>'[2]cheval de frise'!L56</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N57">
         <f>[2]moat!L56</f>
@@ -24526,7 +24531,7 @@
       </c>
       <c r="W57">
         <f>[2]rip!L56</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -24543,11 +24548,11 @@
       </c>
       <c r="D58">
         <f>'[2]shot analysis'!N58</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E58">
         <f>'[2]shot analysis'!O58</f>
-        <v>0.57735026918962584</v>
+        <v>0.44721359549995793</v>
       </c>
       <c r="G58" t="e">
         <f>'[2]shot analysis'!AA58</f>
@@ -24559,15 +24564,15 @@
       </c>
       <c r="I58">
         <f>'[2]shot analysis'!AC58</f>
-        <v>1.6666666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="J58">
         <f>'[2]shot analysis'!AD58</f>
-        <v>1.5275252316519465</v>
-      </c>
-      <c r="L58" t="e">
+        <v>1.3038404810405297</v>
+      </c>
+      <c r="L58">
         <f>[2]portcullis!L57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <f>'[2]cheval de frise'!L57</f>
@@ -24579,7 +24584,7 @@
       </c>
       <c r="O58">
         <f>[2]ramparts!L57</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P58" t="e">
         <f>[2]drawbridge!L57</f>
@@ -24587,7 +24592,7 @@
       </c>
       <c r="Q58">
         <f>'[2]sally port'!L57</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R58">
         <f>'[2]rock wall'!L57</f>
@@ -24607,7 +24612,7 @@
       </c>
       <c r="W58">
         <f>[2]rip!L57</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -24640,55 +24645,55 @@
       </c>
       <c r="I59">
         <f>'[2]shot analysis'!AC59</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J59">
         <f>'[2]shot analysis'!AD59</f>
-        <v>1.1547005383792517</v>
-      </c>
-      <c r="L59" t="e">
+        <v>0.75592894601845451</v>
+      </c>
+      <c r="L59">
         <f>[2]portcullis!L58</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <f>'[2]cheval de frise'!L58</f>
-        <v>1.3333333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="N59">
         <f>[2]moat!L58</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O59">
         <f>[2]ramparts!L58</f>
-        <v>0</v>
-      </c>
-      <c r="P59" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P59">
         <f>[2]drawbridge!L58</f>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q59">
         <f>'[2]sally port'!L58</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
         <f>'[2]rock wall'!L58</f>
+        <v>0.75</v>
+      </c>
+      <c r="S59">
+        <f>'[2]rough terrain'!L58</f>
         <v>0.33333333333333331</v>
-      </c>
-      <c r="S59" t="e">
-        <f>'[2]rough terrain'!L58</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="T59">
         <f>[2]lowbar!L58</f>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V59">
         <f>[2]climb!L58</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="W59">
         <f>[2]rip!L58</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -24725,11 +24730,11 @@
       </c>
       <c r="J60">
         <f>'[2]shot analysis'!AD60</f>
-        <v>0.81649658092772603</v>
-      </c>
-      <c r="L60" t="e">
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="L60">
         <f>[2]portcullis!L59</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <f>'[2]cheval de frise'!L59</f>
@@ -24737,7 +24742,7 @@
       </c>
       <c r="N60">
         <f>[2]moat!L59</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O60">
         <f>[2]ramparts!L59</f>
@@ -24753,15 +24758,15 @@
       </c>
       <c r="R60">
         <f>'[2]rock wall'!L59</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S60">
+        <f>'[2]rough terrain'!L59</f>
         <v>2</v>
-      </c>
-      <c r="S60" t="e">
-        <f>'[2]rough terrain'!L59</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="T60">
         <f>[2]lowbar!L59</f>
-        <v>1.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V60">
         <f>[2]climb!L59</f>
@@ -24769,7 +24774,7 @@
       </c>
       <c r="W60">
         <f>[2]rip!L59</f>
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -24802,11 +24807,11 @@
       </c>
       <c r="I61">
         <f>'[2]shot analysis'!AC61</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <f>'[2]shot analysis'!AD61</f>
-        <v>0.57735026918962584</v>
+        <v>1.2247448713915889</v>
       </c>
       <c r="L61">
         <f>[2]portcullis!L60</f>
@@ -24814,7 +24819,7 @@
       </c>
       <c r="M61">
         <f>'[2]cheval de frise'!L60</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N61">
         <f>[2]moat!L60</f>
@@ -24822,7 +24827,7 @@
       </c>
       <c r="O61">
         <f>[2]ramparts!L60</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P61">
         <f>[2]drawbridge!L60</f>
@@ -24830,11 +24835,11 @@
       </c>
       <c r="Q61">
         <f>'[2]sally port'!L60</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
         <f>'[2]rock wall'!L60</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S61">
         <f>'[2]rough terrain'!L60</f>
@@ -24842,7 +24847,7 @@
       </c>
       <c r="T61">
         <f>[2]lowbar!L60</f>
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="V61">
         <f>[2]climb!L60</f>
@@ -24883,11 +24888,11 @@
       </c>
       <c r="I62">
         <f>'[2]shot analysis'!AC62</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="J62">
         <f>'[2]shot analysis'!AD62</f>
-        <v>0</v>
+        <v>1.1259916264596033</v>
       </c>
       <c r="L62" t="e">
         <f>[2]portcullis!L61</f>
@@ -24895,23 +24900,23 @@
       </c>
       <c r="M62">
         <f>'[2]cheval de frise'!L61</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="N62">
         <f>[2]moat!L61</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O62">
         <f>[2]ramparts!L61</f>
-        <v>2</v>
-      </c>
-      <c r="P62" t="e">
+        <v>1.8</v>
+      </c>
+      <c r="P62">
         <f>[2]drawbridge!L61</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <f>'[2]sally port'!L61</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R62">
         <f>'[2]rock wall'!L61</f>
@@ -24919,11 +24924,11 @@
       </c>
       <c r="S62">
         <f>'[2]rough terrain'!L61</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <f>[2]lowbar!L61</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="V62">
         <f>[2]climb!L61</f>
@@ -24931,7 +24936,7 @@
       </c>
       <c r="W62">
         <f>[2]rip!L61</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -24964,11 +24969,11 @@
       </c>
       <c r="I63">
         <f>'[2]shot analysis'!AC63</f>
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="J63">
         <f>'[2]shot analysis'!AD63</f>
-        <v>0.9574271077563381</v>
+        <v>0.83666002653407556</v>
       </c>
       <c r="L63">
         <f>[2]portcullis!L62</f>
@@ -24976,7 +24981,7 @@
       </c>
       <c r="M63">
         <f>'[2]cheval de frise'!L62</f>
-        <v>1.6666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="N63" t="e">
         <f>[2]moat!L62</f>
@@ -24986,9 +24991,9 @@
         <f>[2]ramparts!L62</f>
         <v>2</v>
       </c>
-      <c r="P63" t="e">
+      <c r="P63">
         <f>[2]drawbridge!L62</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <f>'[2]sally port'!L62</f>
@@ -25000,7 +25005,7 @@
       </c>
       <c r="S63">
         <f>'[2]rough terrain'!L62</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <f>[2]lowbar!L62</f>
@@ -25045,19 +25050,19 @@
       </c>
       <c r="I64">
         <f>'[2]shot analysis'!AC64</f>
-        <v>3</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="J64">
         <f>'[2]shot analysis'!AD64</f>
-        <v>1</v>
-      </c>
-      <c r="L64" t="e">
+        <v>2.1157009420498154</v>
+      </c>
+      <c r="L64">
         <f>[2]portcullis!L63</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <f>'[2]cheval de frise'!L63</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N64">
         <f>[2]moat!L63</f>
@@ -25065,7 +25070,7 @@
       </c>
       <c r="O64">
         <f>[2]ramparts!L63</f>
-        <v>2</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="P64">
         <f>[2]drawbridge!L63</f>
@@ -25073,19 +25078,19 @@
       </c>
       <c r="Q64">
         <f>'[2]sally port'!L63</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
         <f>'[2]rock wall'!L63</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="S64" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="S64">
         <f>'[2]rough terrain'!L63</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <f>[2]lowbar!L63</f>
-        <v>2</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="V64">
         <f>[2]climb!L63</f>
@@ -25126,19 +25131,19 @@
       </c>
       <c r="I65">
         <f>'[2]shot analysis'!AC65</f>
-        <v>2.5</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="J65">
         <f>'[2]shot analysis'!AD65</f>
-        <v>0.57735026918962573</v>
-      </c>
-      <c r="L65" t="e">
+        <v>1.0690449676496974</v>
+      </c>
+      <c r="L65">
         <f>[2]portcullis!L64</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <f>'[2]cheval de frise'!L64</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N65">
         <f>[2]moat!L64</f>
@@ -25148,25 +25153,25 @@
         <f>[2]ramparts!L64</f>
         <v>1</v>
       </c>
-      <c r="P65" t="e">
+      <c r="P65">
         <f>[2]drawbridge!L64</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="Q65">
         <f>'[2]sally port'!L64</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R65">
         <f>'[2]rock wall'!L64</f>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="S65">
         <f>'[2]rough terrain'!L64</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T65">
         <f>[2]lowbar!L64</f>
-        <v>1</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="V65">
         <f>[2]climb!L64</f>
@@ -25174,7 +25179,7 @@
       </c>
       <c r="W65">
         <f>[2]rip!L64</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -25191,11 +25196,11 @@
       </c>
       <c r="D66">
         <f>'[2]shot analysis'!N66</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E66">
         <f>'[2]shot analysis'!O66</f>
-        <v>0</v>
+        <v>0.37796447300922725</v>
       </c>
       <c r="G66" t="e">
         <f>'[2]shot analysis'!AA66</f>
@@ -25219,27 +25224,27 @@
       </c>
       <c r="M66">
         <f>'[2]cheval de frise'!L65</f>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
         <f>[2]moat!L65</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O66">
         <f>[2]ramparts!L65</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="P66" t="e">
+      <c r="P66">
         <f>[2]drawbridge!L65</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="Q66">
         <f>'[2]sally port'!L65</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <f>'[2]rock wall'!L65</f>
-        <v>0.66666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="S66">
         <f>'[2]rough terrain'!L65</f>
@@ -25247,7 +25252,7 @@
       </c>
       <c r="T66">
         <f>[2]lowbar!L65</f>
-        <v>1.5</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="V66">
         <f>[2]climb!L65</f>
@@ -25255,7 +25260,7 @@
       </c>
       <c r="W66">
         <f>[2]rip!L65</f>
-        <v>1</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -25308,27 +25313,27 @@
       </c>
       <c r="O67">
         <f>[2]ramparts!L66</f>
-        <v>0</v>
-      </c>
-      <c r="P67" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P67">
         <f>[2]drawbridge!L66</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <f>'[2]sally port'!L66</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R67">
         <f>'[2]rock wall'!L66</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S67">
         <f>'[2]rough terrain'!L66</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T67">
         <f>[2]lowbar!L66</f>
-        <v>1.3333333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V67">
         <f>[2]climb!L66</f>
@@ -25336,7 +25341,7 @@
       </c>
       <c r="W67">
         <f>[2]rip!L66</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>
